--- a/A2_results_step_2_4.xlsx
+++ b/A2_results_step_2_4.xlsx
@@ -498,10 +498,10 @@
         <v>0.0</v>
       </c>
       <c r="B2">
-        <v>121.60250000000002</v>
+        <v>110.51416666666667</v>
       </c>
       <c r="C2">
-        <v>222.89749999999998</v>
+        <v>176.51083333333338</v>
       </c>
       <c r="D2">
         <v>0.0</v>
@@ -515,16 +515,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>-121.60250000000002</v>
+        <v>-110.51416666666667</v>
       </c>
       <c r="B3">
         <v>0.0</v>
       </c>
       <c r="C3">
-        <v>101.29500000000002</v>
+        <v>65.99666666666667</v>
       </c>
       <c r="D3">
-        <v>366.6075000000001</v>
+        <v>394.5174999999999</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -535,10 +535,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>-222.89749999999998</v>
+        <v>-176.51083333333338</v>
       </c>
       <c r="B4">
-        <v>-101.29500000000002</v>
+        <v>-65.99666666666667</v>
       </c>
       <c r="C4">
         <v>0.0</v>
@@ -550,7 +550,7 @@
         <v>0.0</v>
       </c>
       <c r="F4">
-        <v>256.56750000000005</v>
+        <v>306.4825</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -558,7 +558,7 @@
         <v>-0.0</v>
       </c>
       <c r="B5">
-        <v>-366.6075000000001</v>
+        <v>-394.5174999999999</v>
       </c>
       <c r="C5">
         <v>-0.0</v>
@@ -567,10 +567,10 @@
         <v>0.0</v>
       </c>
       <c r="E5">
-        <v>101.35249999999998</v>
+        <v>102.55583333333334</v>
       </c>
       <c r="F5">
-        <v>-8.74499999999999</v>
+        <v>-22.03833333333335</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -584,13 +584,13 @@
         <v>-0.0</v>
       </c>
       <c r="D6">
-        <v>-101.35249999999998</v>
+        <v>-102.55583333333334</v>
       </c>
       <c r="E6">
         <v>0.0</v>
       </c>
       <c r="F6">
-        <v>-110.09749999999997</v>
+        <v>-124.59416666666668</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -601,13 +601,13 @@
         <v>-0.0</v>
       </c>
       <c r="C7">
-        <v>-256.56750000000005</v>
+        <v>-306.4825</v>
       </c>
       <c r="D7">
-        <v>8.74499999999999</v>
+        <v>22.03833333333335</v>
       </c>
       <c r="E7">
-        <v>110.09749999999997</v>
+        <v>124.59416666666668</v>
       </c>
       <c r="F7">
         <v>0.0</v>
@@ -648,10 +648,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>155.0</v>
+        <v>155.00000000000006</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>1.1368683772161603e-13</v>
       </c>
       <c r="C2">
         <v>155.0</v>
@@ -688,14 +688,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
+        <v>125.49999999999997</v>
+      </c>
+      <c r="B4">
+        <v>0.0</v>
+      </c>
+      <c r="C4">
         <v>155.0</v>
       </c>
-      <c r="B4">
-        <v>0.0</v>
-      </c>
-      <c r="C4">
-        <v>0.0</v>
-      </c>
       <c r="D4">
         <v>0.0</v>
       </c>
@@ -703,15 +703,15 @@
         <v>0.0</v>
       </c>
       <c r="F4">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080802e-14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>155.0</v>
+        <v>154.99999999999997</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="C5">
         <v>155.0</v>
@@ -723,18 +723,18 @@
         <v>0.0</v>
       </c>
       <c r="F5">
-        <v>133.49999999999977</v>
+        <v>173.50000000000023</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>71.0</v>
+        <v>55.99999999999986</v>
       </c>
       <c r="B6">
         <v>0.0</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>154.99999999999997</v>
       </c>
       <c r="D6">
         <v>0.0</v>
@@ -748,13 +748,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>155.00000000000003</v>
+        <v>0.0</v>
       </c>
       <c r="B7">
         <v>0.0</v>
       </c>
       <c r="C7">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7">
         <v>0.0</v>
@@ -763,18 +763,18 @@
         <v>0.0</v>
       </c>
       <c r="F7">
-        <v>8.526512829121202e-14</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>155.0</v>
+        <v>0.0</v>
       </c>
       <c r="B8">
         <v>0.0</v>
       </c>
       <c r="C8">
-        <v>155.0</v>
+        <v>74.0</v>
       </c>
       <c r="D8">
         <v>0.0</v>
@@ -783,18 +783,18 @@
         <v>0.0</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>155.0</v>
+        <v>0.0</v>
       </c>
       <c r="B9">
         <v>0.0</v>
       </c>
       <c r="C9">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="D9">
         <v>0.0</v>
@@ -814,7 +814,7 @@
         <v>0.0</v>
       </c>
       <c r="C10">
-        <v>71.0</v>
+        <v>155.0</v>
       </c>
       <c r="D10">
         <v>0.0</v>
@@ -823,18 +823,18 @@
         <v>0.0</v>
       </c>
       <c r="F10">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>154.99999999999994</v>
+        <v>0.0</v>
       </c>
       <c r="B11">
         <v>0.0</v>
       </c>
       <c r="C11">
-        <v>40.99999999999977</v>
+        <v>106.00000000000006</v>
       </c>
       <c r="D11">
         <v>0.0</v>
@@ -843,18 +843,18 @@
         <v>0.0</v>
       </c>
       <c r="F11">
-        <v>1.1368683772161603e-13</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>155.0</v>
+        <v>0.0</v>
       </c>
       <c r="B12">
         <v>0.0</v>
       </c>
       <c r="C12">
-        <v>0.0</v>
+        <v>79.99999999999994</v>
       </c>
       <c r="D12">
         <v>0.0</v>
@@ -894,7 +894,7 @@
         <v>0.0</v>
       </c>
       <c r="C14">
-        <v>55.50000000000003</v>
+        <v>155.0</v>
       </c>
       <c r="D14">
         <v>0.0</v>
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C15">
-        <v>1.7053025658242404e-13</v>
+        <v>136.5</v>
       </c>
       <c r="D15">
         <v>0.0</v>
@@ -928,13 +928,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>86.0</v>
+        <v>76.0</v>
       </c>
       <c r="B16">
         <v>0.0</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="D16">
         <v>0.0</v>
@@ -948,13 +948,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>155.0</v>
+        <v>0.0</v>
       </c>
       <c r="B17">
         <v>0.0</v>
       </c>
       <c r="C17">
-        <v>0.0</v>
+        <v>58.9999999999998</v>
       </c>
       <c r="D17">
         <v>0.0</v>
@@ -968,13 +968,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>155.00000000000003</v>
+        <v>0.0</v>
       </c>
       <c r="B18">
         <v>0.0</v>
       </c>
       <c r="C18">
-        <v>21.0</v>
+        <v>116.0</v>
       </c>
       <c r="D18">
         <v>0.0</v>
@@ -983,18 +983,18 @@
         <v>0.0</v>
       </c>
       <c r="F18">
-        <v>8.526512829121202e-14</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>155.0</v>
+        <v>155.00000000000006</v>
       </c>
       <c r="B19">
         <v>0.0</v>
       </c>
       <c r="C19">
-        <v>41.000000000000085</v>
+        <v>155.00000000000014</v>
       </c>
       <c r="D19">
         <v>0.0</v>
@@ -1028,13 +1028,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>14.000000000000057</v>
+        <v>4.0</v>
       </c>
       <c r="B21">
         <v>0.0</v>
       </c>
       <c r="C21">
-        <v>0.0</v>
+        <v>154.99999999999994</v>
       </c>
       <c r="D21">
         <v>0.0</v>
@@ -1107,7 +1107,7 @@
         <v>350.0</v>
       </c>
       <c r="C3">
-        <v>206.0000000000001</v>
+        <v>210.0</v>
       </c>
       <c r="D3">
         <v>0.0</v>
@@ -1124,7 +1124,7 @@
         <v>184.5</v>
       </c>
       <c r="B4">
-        <v>345.49999999999983</v>
+        <v>350.0</v>
       </c>
       <c r="C4">
         <v>0.0</v>
@@ -1153,7 +1153,7 @@
         <v>0.0</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="F5">
         <v>0.0</v>
@@ -1187,7 +1187,7 @@
         <v>350.0</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="D7">
         <v>0.0</v>
@@ -1207,7 +1207,7 @@
         <v>350.0</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>210.0</v>
       </c>
       <c r="D8">
         <v>0.0</v>
@@ -1227,7 +1227,7 @@
         <v>350.0</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>210.0</v>
       </c>
       <c r="D9">
         <v>0.0</v>
@@ -1267,7 +1267,7 @@
         <v>350.0</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>210.0</v>
       </c>
       <c r="D11">
         <v>0.0</v>
@@ -1284,10 +1284,10 @@
         <v>135.0</v>
       </c>
       <c r="B12">
-        <v>335.0</v>
+        <v>350.0</v>
       </c>
       <c r="C12">
-        <v>0.0</v>
+        <v>210.0</v>
       </c>
       <c r="D12">
         <v>0.0</v>
@@ -1313,7 +1313,7 @@
         <v>0.0</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>1.1368683772161603e-13</v>
       </c>
       <c r="F13">
         <v>0.0</v>
@@ -1333,7 +1333,7 @@
         <v>0.0</v>
       </c>
       <c r="E14">
-        <v>2.8421709430404007e-13</v>
+        <v>0.0</v>
       </c>
       <c r="F14">
         <v>0.0</v>
@@ -1344,7 +1344,7 @@
         <v>283.5</v>
       </c>
       <c r="B15">
-        <v>341.49999999999994</v>
+        <v>350.0</v>
       </c>
       <c r="C15">
         <v>0.0</v>
@@ -1353,7 +1353,7 @@
         <v>0.0</v>
       </c>
       <c r="E15">
-        <v>0.0</v>
+        <v>2.8421709430404007e-13</v>
       </c>
       <c r="F15">
         <v>0.0</v>
@@ -1384,7 +1384,7 @@
         <v>306.0</v>
       </c>
       <c r="B17">
-        <v>304.00000000000017</v>
+        <v>350.0</v>
       </c>
       <c r="C17">
         <v>0.0</v>
@@ -1407,7 +1407,7 @@
         <v>350.0</v>
       </c>
       <c r="C18">
-        <v>0.0</v>
+        <v>210.0</v>
       </c>
       <c r="D18">
         <v>0.0</v>
@@ -1433,7 +1433,7 @@
         <v>0.0</v>
       </c>
       <c r="E19">
-        <v>0.0</v>
+        <v>5.999999999999432</v>
       </c>
       <c r="F19">
         <v>0.0</v>
@@ -1447,7 +1447,7 @@
         <v>350.0</v>
       </c>
       <c r="C20">
-        <v>111.0</v>
+        <v>210.0</v>
       </c>
       <c r="D20">
         <v>0.0</v>
@@ -1520,13 +1520,13 @@
         <v>0.0</v>
       </c>
       <c r="C2">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D2">
         <v>440.0</v>
       </c>
       <c r="E2">
-        <v>239.0</v>
+        <v>219.00000000000023</v>
       </c>
       <c r="F2">
         <v>225.0</v>
@@ -1540,16 +1540,16 @@
         <v>0.0</v>
       </c>
       <c r="C3">
-        <v>140.0</v>
+        <v>119.0</v>
       </c>
       <c r="D3">
-        <v>440.00000000000006</v>
+        <v>440.0</v>
       </c>
       <c r="E3">
         <v>300.0</v>
       </c>
       <c r="F3">
-        <v>175.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1560,16 +1560,16 @@
         <v>0.0</v>
       </c>
       <c r="C4">
-        <v>120.0</v>
+        <v>140.0</v>
       </c>
       <c r="D4">
         <v>320.0</v>
       </c>
       <c r="E4">
-        <v>120.0</v>
+        <v>180.0</v>
       </c>
       <c r="F4">
-        <v>125.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1580,16 +1580,16 @@
         <v>0.0</v>
       </c>
       <c r="C5">
-        <v>220.0</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="D5">
-        <v>280.0</v>
+        <v>320.0</v>
       </c>
       <c r="E5">
-        <v>270.0</v>
+        <v>300.0</v>
       </c>
       <c r="F5">
-        <v>100.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1600,16 +1600,16 @@
         <v>0.0</v>
       </c>
       <c r="C6">
-        <v>160.0</v>
+        <v>180.0</v>
       </c>
       <c r="D6">
-        <v>240.0</v>
+        <v>280.0</v>
       </c>
       <c r="E6">
-        <v>270.0</v>
+        <v>300.0</v>
       </c>
       <c r="F6">
-        <v>75.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1620,16 +1620,16 @@
         <v>0.0</v>
       </c>
       <c r="C7">
-        <v>160.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7">
-        <v>120.0</v>
+        <v>200.0</v>
       </c>
       <c r="E7">
         <v>270.0</v>
       </c>
       <c r="F7">
-        <v>75.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1640,16 +1640,16 @@
         <v>0.0</v>
       </c>
       <c r="C8">
-        <v>51.0</v>
+        <v>0.0</v>
       </c>
       <c r="D8">
-        <v>440.0</v>
+        <v>440.00000000000006</v>
       </c>
       <c r="E8">
-        <v>300.0</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="F8">
-        <v>175.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1660,16 +1660,16 @@
         <v>0.0</v>
       </c>
       <c r="C9">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9">
-        <v>280.0</v>
+        <v>319.99999999999994</v>
       </c>
       <c r="E9">
-        <v>90.0</v>
+        <v>150.0</v>
       </c>
       <c r="F9">
-        <v>175.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1680,13 +1680,13 @@
         <v>0.0</v>
       </c>
       <c r="C10">
-        <v>140.0</v>
+        <v>160.0</v>
       </c>
       <c r="D10">
-        <v>200.0</v>
+        <v>280.0</v>
       </c>
       <c r="E10">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="F10">
         <v>275.0</v>
@@ -1703,13 +1703,13 @@
         <v>220.0</v>
       </c>
       <c r="D11">
-        <v>280.0</v>
+        <v>320.0</v>
       </c>
       <c r="E11">
-        <v>270.0</v>
+        <v>300.0</v>
       </c>
       <c r="F11">
-        <v>100.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1720,16 +1720,16 @@
         <v>0.0</v>
       </c>
       <c r="C12">
-        <v>160.0</v>
+        <v>180.0</v>
       </c>
       <c r="D12">
-        <v>120.0</v>
+        <v>200.0</v>
       </c>
       <c r="E12">
         <v>270.0</v>
       </c>
       <c r="F12">
-        <v>75.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1746,10 +1746,10 @@
         <v>360.0</v>
       </c>
       <c r="E13">
-        <v>180.0</v>
+        <v>240.0</v>
       </c>
       <c r="F13">
-        <v>163.0</v>
+        <v>103.00000000000034</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1760,16 +1760,16 @@
         <v>0.0</v>
       </c>
       <c r="C14">
-        <v>160.0</v>
+        <v>180.0</v>
       </c>
       <c r="D14">
-        <v>240.0</v>
+        <v>280.0</v>
       </c>
       <c r="E14">
-        <v>270.0</v>
+        <v>300.0</v>
       </c>
       <c r="F14">
-        <v>75.0</v>
+        <v>84.50000000000011</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1780,16 +1780,16 @@
         <v>0.0</v>
       </c>
       <c r="C15">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D15">
-        <v>280.0</v>
+        <v>320.0</v>
       </c>
       <c r="E15">
-        <v>90.0</v>
+        <v>150.0</v>
       </c>
       <c r="F15">
-        <v>175.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1800,16 +1800,16 @@
         <v>0.0</v>
       </c>
       <c r="C16">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D16">
-        <v>280.0</v>
+        <v>320.0</v>
       </c>
       <c r="E16">
-        <v>90.0</v>
+        <v>150.0</v>
       </c>
       <c r="F16">
-        <v>175.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1820,13 +1820,13 @@
         <v>0.0</v>
       </c>
       <c r="C17">
-        <v>140.0</v>
+        <v>160.0</v>
       </c>
       <c r="D17">
-        <v>200.0</v>
+        <v>280.0</v>
       </c>
       <c r="E17">
-        <v>150.0</v>
+        <v>0.0</v>
       </c>
       <c r="F17">
         <v>275.0</v>
@@ -1840,16 +1840,16 @@
         <v>0.0</v>
       </c>
       <c r="C18">
-        <v>160.0</v>
+        <v>180.0</v>
       </c>
       <c r="D18">
-        <v>120.0</v>
+        <v>200.0</v>
       </c>
       <c r="E18">
         <v>270.0</v>
       </c>
       <c r="F18">
-        <v>75.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1863,13 +1863,13 @@
         <v>220.0</v>
       </c>
       <c r="D19">
-        <v>280.0</v>
+        <v>320.0</v>
       </c>
       <c r="E19">
-        <v>270.0</v>
+        <v>300.0</v>
       </c>
       <c r="F19">
-        <v>100.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1880,16 +1880,16 @@
         <v>0.0</v>
       </c>
       <c r="C20">
-        <v>220.0</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="D20">
-        <v>280.0</v>
+        <v>320.0</v>
       </c>
       <c r="E20">
-        <v>270.0</v>
+        <v>300.0</v>
       </c>
       <c r="F20">
-        <v>100.0</v>
+        <v>129.00000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1900,16 +1900,16 @@
         <v>0.0</v>
       </c>
       <c r="C21">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D21">
-        <v>280.0</v>
+        <v>320.0</v>
       </c>
       <c r="E21">
-        <v>90.0</v>
+        <v>150.0</v>
       </c>
       <c r="F21">
-        <v>175.0</v>
+        <v>200.0</v>
       </c>
     </row>
   </sheetData>
@@ -1992,61 +1992,61 @@
         <v>16.170000000000005</v>
       </c>
       <c r="B2">
-        <v>14.070000000000014</v>
+        <v>21.199999999999992</v>
       </c>
       <c r="C2">
-        <v>5.0</v>
+        <v>15.750000000000004</v>
       </c>
       <c r="D2">
-        <v>19.760000000000012</v>
+        <v>25.41000000000003</v>
       </c>
       <c r="E2">
-        <v>2.5</v>
+        <v>15.750000000000004</v>
       </c>
       <c r="F2">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
       <c r="G2">
-        <v>13.250000000000007</v>
+        <v>14.07</v>
       </c>
       <c r="H2">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
       <c r="I2">
-        <v>5.0</v>
+        <v>24.69999999999997</v>
       </c>
       <c r="J2">
-        <v>5.499999999999999</v>
+        <v>14.07</v>
       </c>
       <c r="K2">
-        <v>3.5</v>
+        <v>14.07</v>
       </c>
       <c r="L2">
+        <v>15.749999999999993</v>
+      </c>
+      <c r="M2">
         <v>15.750000000000004</v>
       </c>
-      <c r="M2">
-        <v>5.5</v>
-      </c>
       <c r="N2">
-        <v>2.5</v>
+        <v>14.07</v>
       </c>
       <c r="O2">
-        <v>2.4999999999999996</v>
+        <v>15.750000000000004</v>
       </c>
       <c r="P2">
-        <v>5.0</v>
+        <v>13.860000000000003</v>
       </c>
       <c r="Q2">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
       <c r="R2">
-        <v>5.5</v>
+        <v>17.290001881033525</v>
       </c>
       <c r="S2">
-        <v>14.07</v>
+        <v>20.25</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>15.750000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2054,61 +2054,61 @@
         <v>16.17</v>
       </c>
       <c r="B3">
-        <v>14.070000000000014</v>
+        <v>21.2</v>
       </c>
       <c r="C3">
-        <v>5.0</v>
+        <v>15.750000000000007</v>
       </c>
       <c r="D3">
-        <v>19.760000000000005</v>
+        <v>25.410000000000007</v>
       </c>
       <c r="E3">
-        <v>2.5</v>
+        <v>15.750000000000005</v>
       </c>
       <c r="F3">
-        <v>5.5</v>
+        <v>14.070000000000002</v>
       </c>
       <c r="G3">
-        <v>13.250000000000007</v>
+        <v>14.07</v>
       </c>
       <c r="H3">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
       <c r="I3">
-        <v>5.0</v>
+        <v>24.699999999999992</v>
       </c>
       <c r="J3">
-        <v>5.499999999999999</v>
+        <v>14.07</v>
       </c>
       <c r="K3">
-        <v>3.5</v>
+        <v>14.07</v>
       </c>
       <c r="L3">
+        <v>15.750000000000007</v>
+      </c>
+      <c r="M3">
         <v>15.749999999999996</v>
       </c>
-      <c r="M3">
-        <v>5.5</v>
-      </c>
       <c r="N3">
-        <v>2.5</v>
+        <v>14.07</v>
       </c>
       <c r="O3">
-        <v>2.5</v>
+        <v>15.750000000000004</v>
       </c>
       <c r="P3">
-        <v>5.0</v>
+        <v>13.86</v>
       </c>
       <c r="Q3">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
       <c r="R3">
-        <v>5.5</v>
+        <v>17.290001881033533</v>
       </c>
       <c r="S3">
-        <v>14.07</v>
+        <v>20.25</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>15.750000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2116,61 +2116,61 @@
         <v>16.17</v>
       </c>
       <c r="B4">
-        <v>14.070000000000014</v>
+        <v>21.200000000000003</v>
       </c>
       <c r="C4">
-        <v>5.0</v>
+        <v>15.750000000000005</v>
       </c>
       <c r="D4">
-        <v>19.760000000000005</v>
+        <v>25.41</v>
       </c>
       <c r="E4">
-        <v>2.5</v>
+        <v>15.750000000000005</v>
       </c>
       <c r="F4">
-        <v>5.5</v>
+        <v>14.070000000000002</v>
       </c>
       <c r="G4">
-        <v>13.250000000000007</v>
+        <v>14.07</v>
       </c>
       <c r="H4">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
       <c r="I4">
-        <v>5.0</v>
+        <v>24.7</v>
       </c>
       <c r="J4">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
       <c r="K4">
-        <v>3.500000000000001</v>
+        <v>14.07</v>
       </c>
       <c r="L4">
+        <v>15.750000000000002</v>
+      </c>
+      <c r="M4">
         <v>15.749999999999998</v>
       </c>
-      <c r="M4">
-        <v>5.5</v>
-      </c>
       <c r="N4">
-        <v>2.5</v>
+        <v>14.070000000000004</v>
       </c>
       <c r="O4">
-        <v>2.5</v>
+        <v>15.750000000000002</v>
       </c>
       <c r="P4">
-        <v>5.0</v>
+        <v>13.859999999999996</v>
       </c>
       <c r="Q4">
-        <v>5.500000000000001</v>
+        <v>14.07</v>
       </c>
       <c r="R4">
-        <v>5.5</v>
+        <v>17.290001881033533</v>
       </c>
       <c r="S4">
-        <v>14.07</v>
+        <v>20.25</v>
       </c>
       <c r="T4">
-        <v>2.500000000000001</v>
+        <v>15.750000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2178,61 +2178,61 @@
         <v>16.17</v>
       </c>
       <c r="B5">
-        <v>14.070000000000014</v>
+        <v>21.200000000000003</v>
       </c>
       <c r="C5">
-        <v>4.999999999999999</v>
+        <v>15.750000000000009</v>
       </c>
       <c r="D5">
-        <v>19.76</v>
+        <v>25.410000000000004</v>
       </c>
       <c r="E5">
-        <v>2.5</v>
+        <v>15.750000000000005</v>
       </c>
       <c r="F5">
-        <v>5.499999999999999</v>
+        <v>14.07</v>
       </c>
       <c r="G5">
-        <v>13.250000000000007</v>
+        <v>14.07</v>
       </c>
       <c r="H5">
-        <v>5.499999999999999</v>
+        <v>14.069999999999999</v>
       </c>
       <c r="I5">
-        <v>5.0</v>
+        <v>24.699999999999996</v>
       </c>
       <c r="J5">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
       <c r="K5">
-        <v>3.5</v>
+        <v>14.07</v>
       </c>
       <c r="L5">
+        <v>15.750000000000005</v>
+      </c>
+      <c r="M5">
         <v>15.749999999999996</v>
       </c>
-      <c r="M5">
-        <v>5.5</v>
-      </c>
       <c r="N5">
-        <v>2.5</v>
+        <v>14.07</v>
       </c>
       <c r="O5">
-        <v>2.5</v>
+        <v>15.750000000000002</v>
       </c>
       <c r="P5">
-        <v>5.0</v>
+        <v>13.860000000000001</v>
       </c>
       <c r="Q5">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
       <c r="R5">
-        <v>5.5</v>
+        <v>17.290001881033536</v>
       </c>
       <c r="S5">
-        <v>14.07</v>
+        <v>20.25</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>15.750000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -2240,61 +2240,61 @@
         <v>16.17</v>
       </c>
       <c r="B6">
-        <v>14.070000000000014</v>
+        <v>21.200000000000003</v>
       </c>
       <c r="C6">
-        <v>5.0</v>
+        <v>15.750000000000007</v>
       </c>
       <c r="D6">
-        <v>19.76</v>
+        <v>25.410000000000004</v>
       </c>
       <c r="E6">
-        <v>2.5</v>
+        <v>15.750000000000007</v>
       </c>
       <c r="F6">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
       <c r="G6">
-        <v>13.250000000000007</v>
+        <v>14.07</v>
       </c>
       <c r="H6">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
       <c r="I6">
-        <v>5.0</v>
+        <v>24.699999999999996</v>
       </c>
       <c r="J6">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
       <c r="K6">
-        <v>3.5</v>
+        <v>14.07</v>
       </c>
       <c r="L6">
-        <v>15.749999999999998</v>
+        <v>15.750000000000004</v>
       </c>
       <c r="M6">
-        <v>5.5</v>
+        <v>15.749999999999995</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
+        <v>14.07</v>
       </c>
       <c r="O6">
-        <v>2.5</v>
+        <v>15.750000000000005</v>
       </c>
       <c r="P6">
-        <v>5.0</v>
+        <v>13.860000000000001</v>
       </c>
       <c r="Q6">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
       <c r="R6">
-        <v>5.5</v>
+        <v>17.290001881033533</v>
       </c>
       <c r="S6">
-        <v>14.07</v>
+        <v>20.25</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>15.750000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -2302,61 +2302,61 @@
         <v>16.17</v>
       </c>
       <c r="B7">
-        <v>14.070000000000014</v>
+        <v>21.200000000000006</v>
       </c>
       <c r="C7">
-        <v>5.0</v>
+        <v>15.750000000000007</v>
       </c>
       <c r="D7">
-        <v>19.76</v>
+        <v>25.410000000000004</v>
       </c>
       <c r="E7">
-        <v>2.5</v>
+        <v>15.750000000000005</v>
       </c>
       <c r="F7">
-        <v>5.5</v>
+        <v>14.070000000000002</v>
       </c>
       <c r="G7">
-        <v>13.250000000000007</v>
+        <v>14.07</v>
       </c>
       <c r="H7">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
       <c r="I7">
-        <v>5.0</v>
+        <v>24.699999999999996</v>
       </c>
       <c r="J7">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
       <c r="K7">
-        <v>3.5000000000000004</v>
+        <v>14.07</v>
       </c>
       <c r="L7">
+        <v>15.750000000000004</v>
+      </c>
+      <c r="M7">
         <v>15.749999999999998</v>
       </c>
-      <c r="M7">
-        <v>5.5</v>
-      </c>
       <c r="N7">
-        <v>2.5</v>
+        <v>14.070000000000002</v>
       </c>
       <c r="O7">
-        <v>2.5</v>
+        <v>15.750000000000004</v>
       </c>
       <c r="P7">
-        <v>5.0</v>
+        <v>13.860000000000001</v>
       </c>
       <c r="Q7">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
       <c r="R7">
-        <v>5.5</v>
+        <v>17.290001881033536</v>
       </c>
       <c r="S7">
-        <v>14.07</v>
+        <v>20.25</v>
       </c>
       <c r="T7">
-        <v>2.5000000000000004</v>
+        <v>15.750000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -2379,22 +2379,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.5</v>
+        <v>15.750000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>19.760000000000005</v>
+        <v>25.410000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>5.5</v>
+        <v>14.07</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>19.76</v>
+        <v>25.410000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>19508.719</v>
+        <v>21910.56525</v>
       </c>
       <c r="B2">
-        <v>-16264.4845</v>
+        <v>-15435.72272084398</v>
       </c>
     </row>
   </sheetData>
@@ -2433,7 +2433,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A81"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -2446,402 +2446,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>-0.0</v>
+        <v>-1788.1012354219909</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>-0.0</v>
+        <v>-3207.0625</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>-0.0</v>
+        <v>-1096.6132354219899</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>-718.2187500002315</v>
+        <v>-3207.0625</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>-0.0</v>
+        <v>-3207.0625</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>-247.49999999877232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>-478.81250000015405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>-18.97874999995512</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>-164.99999999917188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>-239.40625000008347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>-474.4687499988779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <v>-577.4999999982622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>-119.7031250000388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>-329.99999999972886</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>-379.5749999991024</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>-329.99999999837866</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <v>-247.49999999877232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>-478.81250000015433</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <v>-379.5749999991024</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>-478.81250000015433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>-247.49999999924555</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <v>-840.6975000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
-        <v>-577.4999999971767</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
-        <v>-119.7031250000388</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
-        <v>-227.74499999946138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
-        <v>-329.99999999973255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
-        <v>-494.9999999975979</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
-        <v>-18.97874999995512</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52">
-        <v>-329.9999999983734</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
-        <v>-247.4999999987409</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65">
-        <v>-885.0225000005236</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66">
-        <v>-379.5749999991024</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68">
-        <v>-329.999999999102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72">
-        <v>-577.4999999971767</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
-        <v>-119.7031250000388</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
-        <v>-379.5749999991024</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76">
-        <v>-577.4999999971767</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77">
-        <v>-119.7031250000388</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80">
-        <v>-0.0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81">
-        <v>-478.81250000015433</v>
+        <v>-2929.82075</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step_2_4.xlsx
+++ b/A2_results_step_2_4.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d63f66d86bcfcc9a/Master Sustainable Energy/3rd Semester/Renewables in electricity markets/Assignment 1/RenewablesInElectricityMarkets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="115_{14034D0A-50AF-4F97-8447-444B917B7D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="5400" yWindow="0" windowWidth="16200" windowHeight="9970" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="DC_flow_df" sheetId="1" r:id="rId1"/>
-    <sheet name="Ps_nodal_df" r:id="rId5" sheetId="2"/>
-    <sheet name="Po_nodal_df" r:id="rId6" sheetId="3"/>
-    <sheet name="Dk_nodal_df" r:id="rId7" sheetId="4"/>
-    <sheet name="Clearing_df" r:id="rId8" sheetId="5"/>
-    <sheet name="Price_s_df" r:id="rId9" sheetId="6"/>
-    <sheet name="SW_vs_Prof_df" r:id="rId10" sheetId="7"/>
-    <sheet name="Profit_df" r:id="rId11" sheetId="8"/>
+    <sheet name="Ps_nodal_df" sheetId="2" r:id="rId2"/>
+    <sheet name="Po_nodal_df" sheetId="3" r:id="rId3"/>
+    <sheet name="Dk_nodal_df" sheetId="4" r:id="rId4"/>
+    <sheet name="Clearing_df" sheetId="5" r:id="rId5"/>
+    <sheet name="Price_s_df" sheetId="6" r:id="rId6"/>
+    <sheet name="SW_vs_Prof_df" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>N1</t>
   </si>
@@ -466,14 +465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA56555C-C743-4A9F-B70F-7A3AEB091A3B}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,124 +492,124 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>110.51416666666667</v>
+        <v>119.89416666666669</v>
       </c>
       <c r="C2">
-        <v>176.51083333333338</v>
+        <v>188.88083333333336</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-110.51416666666667</v>
+        <v>-119.89416666666669</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>65.99666666666667</v>
+        <v>68.986666666666665</v>
       </c>
       <c r="D3">
-        <v>394.5174999999999</v>
+        <v>400.90749999999997</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-176.51083333333338</v>
+        <v>-188.88083333333336</v>
       </c>
       <c r="B4">
-        <v>-65.99666666666667</v>
+        <v>-68.986666666666665</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>306.4825</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>313.46749999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>-394.5174999999999</v>
+        <v>-400.90749999999997</v>
       </c>
       <c r="C5">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>102.55583333333334</v>
+        <v>102.16083333333336</v>
       </c>
       <c r="F5">
-        <v>-22.03833333333335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>-18.453333333333344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-102.55583333333334</v>
+        <v>-102.16083333333336</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>-124.59416666666668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-120.61416666666672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>-306.4825</v>
+        <v>-313.46749999999997</v>
       </c>
       <c r="D7">
-        <v>22.03833333333335</v>
+        <v>18.453333333333344</v>
       </c>
       <c r="E7">
-        <v>124.59416666666668</v>
+        <v>120.61416666666672</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -619,14 +618,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C75455B-F654-4C09-B459-9C6785D9EA93}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,404 +645,404 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>154.99999999999989</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>119.49999999999991</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>155</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2.8421709430404007E-14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>93.5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>155</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>155</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>155</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>139.50000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5.6843418860808015E-14</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>88.999999999999829</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>8.5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.4210854715202004E-14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>143.99999999999986</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>155.00000000000006</v>
       </c>
-      <c r="B2">
-        <v>1.1368683772161603e-13</v>
-      </c>
-      <c r="C2">
-        <v>155.0</v>
-      </c>
-      <c r="D2">
-        <v>0.0</v>
-      </c>
-      <c r="E2">
-        <v>0.0</v>
-      </c>
-      <c r="F2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>155.0</v>
-      </c>
-      <c r="B3">
-        <v>0.0</v>
-      </c>
-      <c r="C3">
-        <v>155.0</v>
-      </c>
-      <c r="D3">
-        <v>0.0</v>
-      </c>
-      <c r="E3">
-        <v>0.0</v>
-      </c>
-      <c r="F3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>125.49999999999997</v>
-      </c>
-      <c r="B4">
-        <v>0.0</v>
-      </c>
-      <c r="C4">
-        <v>155.0</v>
-      </c>
-      <c r="D4">
-        <v>0.0</v>
-      </c>
-      <c r="E4">
-        <v>0.0</v>
-      </c>
-      <c r="F4">
-        <v>5.684341886080802e-14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>154.99999999999997</v>
-      </c>
-      <c r="B5">
-        <v>2.842170943040401e-14</v>
-      </c>
-      <c r="C5">
-        <v>155.0</v>
-      </c>
-      <c r="D5">
-        <v>0.0</v>
-      </c>
-      <c r="E5">
-        <v>0.0</v>
-      </c>
-      <c r="F5">
-        <v>173.50000000000023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>55.99999999999986</v>
-      </c>
-      <c r="B6">
-        <v>0.0</v>
-      </c>
-      <c r="C6">
-        <v>154.99999999999997</v>
-      </c>
-      <c r="D6">
-        <v>0.0</v>
-      </c>
-      <c r="E6">
-        <v>0.0</v>
-      </c>
-      <c r="F6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>0.0</v>
-      </c>
-      <c r="B7">
-        <v>0.0</v>
-      </c>
-      <c r="C7">
-        <v>0.0</v>
-      </c>
-      <c r="D7">
-        <v>0.0</v>
-      </c>
-      <c r="E7">
-        <v>0.0</v>
-      </c>
-      <c r="F7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>0.0</v>
-      </c>
-      <c r="B8">
-        <v>0.0</v>
-      </c>
-      <c r="C8">
-        <v>74.0</v>
-      </c>
-      <c r="D8">
-        <v>0.0</v>
-      </c>
-      <c r="E8">
-        <v>0.0</v>
-      </c>
-      <c r="F8">
-        <v>2.842170943040401e-14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>0.0</v>
-      </c>
-      <c r="B9">
-        <v>0.0</v>
-      </c>
-      <c r="C9">
-        <v>11.0</v>
-      </c>
-      <c r="D9">
-        <v>0.0</v>
-      </c>
-      <c r="E9">
-        <v>0.0</v>
-      </c>
-      <c r="F9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>155.0</v>
-      </c>
-      <c r="B10">
-        <v>0.0</v>
-      </c>
-      <c r="C10">
-        <v>155.0</v>
-      </c>
       <c r="D10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>106.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>79.99999999999994</v>
+        <v>66.499999999999943</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>155.0</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>155.0</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>155.0</v>
+        <v>155.00000000000003</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>136.5</v>
+        <v>82.5</v>
       </c>
       <c r="D15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>76.0</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="D16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>58.9999999999998</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>116.0</v>
+        <v>115.99999999999994</v>
       </c>
       <c r="D18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>155.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>155.00000000000014</v>
+        <v>154.99999999999983</v>
       </c>
       <c r="D19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>155.0</v>
+        <v>133.00000000000009</v>
       </c>
       <c r="B20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="D20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>4.0</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>154.99999999999994</v>
+        <v>113.99999999999989</v>
       </c>
       <c r="D21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1052,14 +1051,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F0A3DB-C10A-4768-AF25-11E40522415A}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1079,404 +1078,404 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>324.0</v>
+        <v>427.5</v>
       </c>
       <c r="B2">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>189.0</v>
+        <v>247.50000000000003</v>
       </c>
       <c r="B3">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C3">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>1.1368683772161603E-13</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>184.5</v>
+        <v>234</v>
       </c>
       <c r="B4">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>76.5</v>
+        <v>90</v>
       </c>
       <c r="B5">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>324.0</v>
+        <v>432</v>
       </c>
       <c r="B6">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>99.0</v>
+        <v>121.50000000000001</v>
       </c>
       <c r="B7">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C7">
-        <v>146.0</v>
+        <v>157.99999999999994</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>306.0</v>
+        <v>405</v>
       </c>
       <c r="B8">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C8">
-        <v>210.0</v>
+        <v>164.99999999999989</v>
       </c>
       <c r="D8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>99.0</v>
+        <v>121.50000000000001</v>
       </c>
       <c r="B9">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C9">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>189.0</v>
+        <v>247.50000000000003</v>
       </c>
       <c r="B10">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>324.0</v>
+        <v>432</v>
       </c>
       <c r="B11">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C11">
-        <v>210.0</v>
+        <v>187.50000000000011</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>135.0</v>
+        <v>171</v>
       </c>
       <c r="B12">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C12">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>243.0</v>
+        <v>315</v>
       </c>
       <c r="B13">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1.1368683772161603e-13</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>184.5</v>
+        <v>238.5</v>
       </c>
       <c r="B14">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>283.5</v>
+        <v>373.5</v>
       </c>
       <c r="B15">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>2.8421709430404007e-13</v>
+        <v>1.1368683772161603E-13</v>
       </c>
       <c r="F15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>189.0</v>
+        <v>247.50000000000003</v>
       </c>
       <c r="B16">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>306.0</v>
+        <v>409.5</v>
       </c>
       <c r="B17">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>99.0</v>
+        <v>121.50000000000001</v>
       </c>
       <c r="B18">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C18">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="D18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>324.0</v>
+        <v>432</v>
       </c>
       <c r="B19">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>5.999999999999432</v>
+        <v>32.500000000000114</v>
       </c>
       <c r="F19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>99.0</v>
+        <v>121.50000000000001</v>
       </c>
       <c r="B20">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C20">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="D20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>261.0</v>
+        <v>342</v>
       </c>
       <c r="B21">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0</v>
+        <v>1.1368683772161603E-13</v>
       </c>
       <c r="F21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1485,14 +1484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B25A5-9ABD-4E17-8DE8-102B13F027E5}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1512,404 +1511,404 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>100.0</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <v>440.0</v>
+        <v>428</v>
       </c>
       <c r="E2">
-        <v>219.00000000000023</v>
+        <v>163.00000000000045</v>
       </c>
       <c r="F2">
-        <v>225.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>119.0</v>
+        <v>162</v>
       </c>
       <c r="D3">
-        <v>440.0</v>
+        <v>428</v>
       </c>
       <c r="E3">
-        <v>300.0</v>
+        <v>297</v>
       </c>
       <c r="F3">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>140.0</v>
+        <v>144</v>
       </c>
       <c r="D4">
-        <v>320.0</v>
+        <v>336</v>
       </c>
       <c r="E4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="F4">
-        <v>175.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>220.00000000000003</v>
+        <v>218</v>
       </c>
       <c r="D5">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="E5">
-        <v>300.0</v>
+        <v>279</v>
       </c>
       <c r="F5">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>180.0</v>
+        <v>176</v>
       </c>
       <c r="D6">
-        <v>280.0</v>
+        <v>288</v>
       </c>
       <c r="E6">
-        <v>300.0</v>
+        <v>282</v>
       </c>
       <c r="F6">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>200.0</v>
+        <v>216</v>
       </c>
       <c r="E7">
-        <v>270.0</v>
+        <v>276</v>
       </c>
       <c r="F7">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>440.00000000000006</v>
+        <v>428</v>
       </c>
       <c r="E8">
-        <v>300.0000000000001</v>
+        <v>297</v>
       </c>
       <c r="F8">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>319.99999999999994</v>
+        <v>328</v>
       </c>
       <c r="E9">
-        <v>150.0</v>
+        <v>162</v>
       </c>
       <c r="F9">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>160.0</v>
+        <v>164</v>
       </c>
       <c r="D10">
-        <v>280.0</v>
+        <v>268</v>
       </c>
       <c r="E10">
-        <v>180.0</v>
+        <v>192</v>
       </c>
       <c r="F10">
-        <v>275.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>272.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>220.0</v>
+        <v>218</v>
       </c>
       <c r="D11">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="E11">
-        <v>300.0</v>
+        <v>279</v>
       </c>
       <c r="F11">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>180.0</v>
+        <v>168</v>
       </c>
       <c r="D12">
-        <v>200.0</v>
+        <v>216</v>
       </c>
       <c r="E12">
-        <v>270.0</v>
+        <v>276</v>
       </c>
       <c r="F12">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>200.0</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>360.0</v>
+        <v>372</v>
       </c>
       <c r="E13">
-        <v>240.0</v>
+        <v>228</v>
       </c>
       <c r="F13">
-        <v>103.00000000000034</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>220.00000000000011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>180.0</v>
+        <v>48.500000000000199</v>
       </c>
       <c r="D14">
-        <v>280.0</v>
+        <v>288</v>
       </c>
       <c r="E14">
-        <v>300.0</v>
+        <v>282</v>
       </c>
       <c r="F14">
-        <v>84.50000000000011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>100.0</v>
+        <v>116</v>
       </c>
       <c r="D15">
-        <v>320.0</v>
+        <v>328</v>
       </c>
       <c r="E15">
-        <v>150.0</v>
+        <v>162</v>
       </c>
       <c r="F15">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>100.0</v>
+        <v>62.5</v>
       </c>
       <c r="D16">
-        <v>320.0</v>
+        <v>328</v>
       </c>
       <c r="E16">
-        <v>150.0</v>
+        <v>162</v>
       </c>
       <c r="F16">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>160.0</v>
+        <v>164</v>
       </c>
       <c r="D17">
-        <v>280.0</v>
+        <v>268</v>
       </c>
       <c r="E17">
-        <v>0.0</v>
+        <v>55</v>
       </c>
       <c r="F17">
-        <v>275.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>272.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>180.0</v>
+        <v>168</v>
       </c>
       <c r="D18">
-        <v>200.0</v>
+        <v>216</v>
       </c>
       <c r="E18">
-        <v>270.0</v>
+        <v>276</v>
       </c>
       <c r="F18">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>220.0</v>
+        <v>218</v>
       </c>
       <c r="D19">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="E19">
-        <v>300.0</v>
+        <v>279</v>
       </c>
       <c r="F19">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>220.00000000000003</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="D20">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="E20">
-        <v>300.0</v>
+        <v>279</v>
       </c>
       <c r="F20">
-        <v>129.00000000000006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>100.0</v>
+        <v>116</v>
       </c>
       <c r="D21">
-        <v>320.0</v>
+        <v>328</v>
       </c>
       <c r="E21">
-        <v>150.0</v>
+        <v>162</v>
       </c>
       <c r="F21">
-        <v>200.0</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1918,14 +1917,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275D879-7FBC-4515-9A75-48BD71CC6B1F}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1987,376 +1986,376 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>16.170000000000005</v>
+        <v>16.632000000000012</v>
       </c>
       <c r="B2">
-        <v>21.199999999999992</v>
+        <v>19.350000000000016</v>
       </c>
       <c r="C2">
-        <v>15.750000000000004</v>
+        <v>19.349999999995667</v>
       </c>
       <c r="D2">
-        <v>25.41000000000003</v>
+        <v>24.948000000000029</v>
       </c>
       <c r="E2">
-        <v>15.750000000000004</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="F2">
-        <v>14.07</v>
+        <v>13.667999999874153</v>
       </c>
       <c r="G2">
-        <v>14.07</v>
+        <v>13.668000000000058</v>
       </c>
       <c r="H2">
-        <v>14.07</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="I2">
-        <v>24.69999999999997</v>
+        <v>19.350000000000016</v>
       </c>
       <c r="J2">
-        <v>14.07</v>
+        <v>13.668000000000006</v>
       </c>
       <c r="K2">
-        <v>14.07</v>
+        <v>14.069999999999999</v>
       </c>
       <c r="L2">
-        <v>15.749999999999993</v>
+        <v>16.875</v>
       </c>
       <c r="M2">
-        <v>15.750000000000004</v>
+        <v>16.164999999999999</v>
       </c>
       <c r="N2">
-        <v>14.07</v>
+        <v>14.321999999999997</v>
       </c>
       <c r="O2">
-        <v>15.750000000000004</v>
+        <v>16.164999999999999</v>
       </c>
       <c r="P2">
-        <v>13.860000000000003</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="Q2">
-        <v>14.07</v>
+        <v>13.667999999999999</v>
       </c>
       <c r="R2">
-        <v>17.290001881033525</v>
+        <v>17.289999999999988</v>
       </c>
       <c r="S2">
-        <v>20.25</v>
+        <v>19.350000000000016</v>
       </c>
       <c r="T2">
-        <v>15.750000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>14.321999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>16.17</v>
+        <v>16.632000000000005</v>
       </c>
       <c r="B3">
-        <v>21.2</v>
+        <v>19.350000000000019</v>
       </c>
       <c r="C3">
-        <v>15.750000000000007</v>
+        <v>19.349999999995664</v>
       </c>
       <c r="D3">
-        <v>25.410000000000007</v>
+        <v>24.948000000000008</v>
       </c>
       <c r="E3">
-        <v>15.750000000000005</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="F3">
-        <v>14.070000000000002</v>
+        <v>13.667999999874151</v>
       </c>
       <c r="G3">
-        <v>14.07</v>
+        <v>13.668000000000056</v>
       </c>
       <c r="H3">
-        <v>14.07</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="I3">
-        <v>24.699999999999992</v>
+        <v>19.350000000000019</v>
       </c>
       <c r="J3">
-        <v>14.07</v>
+        <v>13.668000000000006</v>
       </c>
       <c r="K3">
-        <v>14.07</v>
+        <v>14.069999999999997</v>
       </c>
       <c r="L3">
-        <v>15.750000000000007</v>
+        <v>16.875</v>
       </c>
       <c r="M3">
-        <v>15.749999999999996</v>
+        <v>16.164999999999999</v>
       </c>
       <c r="N3">
-        <v>14.07</v>
+        <v>14.321999999999996</v>
       </c>
       <c r="O3">
-        <v>15.750000000000004</v>
+        <v>16.164999999999999</v>
       </c>
       <c r="P3">
-        <v>13.86</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="Q3">
-        <v>14.07</v>
+        <v>13.668000000000003</v>
       </c>
       <c r="R3">
-        <v>17.290001881033533</v>
+        <v>17.289999999999996</v>
       </c>
       <c r="S3">
-        <v>20.25</v>
+        <v>19.350000000000005</v>
       </c>
       <c r="T3">
-        <v>15.750000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>14.321999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>16.17</v>
+        <v>16.631999999999998</v>
       </c>
       <c r="B4">
-        <v>21.200000000000003</v>
+        <v>19.350000000000023</v>
       </c>
       <c r="C4">
-        <v>15.750000000000005</v>
+        <v>19.349999999995667</v>
       </c>
       <c r="D4">
-        <v>25.41</v>
+        <v>24.948</v>
       </c>
       <c r="E4">
-        <v>15.750000000000005</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="F4">
-        <v>14.070000000000002</v>
+        <v>13.667999999874155</v>
       </c>
       <c r="G4">
-        <v>14.07</v>
+        <v>13.66800000000006</v>
       </c>
       <c r="H4">
-        <v>14.07</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="I4">
-        <v>24.7</v>
+        <v>19.350000000000023</v>
       </c>
       <c r="J4">
-        <v>14.07</v>
+        <v>13.66800000000001</v>
       </c>
       <c r="K4">
         <v>14.07</v>
       </c>
       <c r="L4">
-        <v>15.750000000000002</v>
+        <v>16.875</v>
       </c>
       <c r="M4">
-        <v>15.749999999999998</v>
+        <v>16.164999999999999</v>
       </c>
       <c r="N4">
-        <v>14.070000000000004</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="O4">
-        <v>15.750000000000002</v>
+        <v>16.164999999999999</v>
       </c>
       <c r="P4">
-        <v>13.859999999999996</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="Q4">
-        <v>14.07</v>
+        <v>13.668000000000003</v>
       </c>
       <c r="R4">
-        <v>17.290001881033533</v>
+        <v>17.289999999999996</v>
       </c>
       <c r="S4">
-        <v>20.25</v>
+        <v>19.350000000000009</v>
       </c>
       <c r="T4">
-        <v>15.750000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>14.321999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>16.17</v>
+        <v>16.632000000000001</v>
       </c>
       <c r="B5">
-        <v>21.200000000000003</v>
+        <v>19.350000000000023</v>
       </c>
       <c r="C5">
-        <v>15.750000000000009</v>
+        <v>19.349999999995664</v>
       </c>
       <c r="D5">
-        <v>25.410000000000004</v>
+        <v>24.948000000000004</v>
       </c>
       <c r="E5">
-        <v>15.750000000000005</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="F5">
-        <v>14.07</v>
+        <v>13.667999999874151</v>
       </c>
       <c r="G5">
-        <v>14.07</v>
+        <v>13.668000000000058</v>
       </c>
       <c r="H5">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="I5">
+        <v>19.350000000000023</v>
+      </c>
+      <c r="J5">
+        <v>13.668000000000006</v>
+      </c>
+      <c r="K5">
+        <v>14.069999999999997</v>
+      </c>
+      <c r="L5">
+        <v>16.875</v>
+      </c>
+      <c r="M5">
+        <v>16.164999999999999</v>
+      </c>
+      <c r="N5">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="O5">
+        <v>16.164999999999999</v>
+      </c>
+      <c r="P5">
+        <v>14.322000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>13.668000000000003</v>
+      </c>
+      <c r="R5">
+        <v>17.29</v>
+      </c>
+      <c r="S5">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="T5">
+        <v>14.321999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>16.632000000000001</v>
+      </c>
+      <c r="B6">
+        <v>19.350000000000023</v>
+      </c>
+      <c r="C6">
+        <v>19.34999999999566</v>
+      </c>
+      <c r="D6">
+        <v>24.948000000000004</v>
+      </c>
+      <c r="E6">
+        <v>14.321999999999997</v>
+      </c>
+      <c r="F6">
+        <v>13.667999999874153</v>
+      </c>
+      <c r="G6">
+        <v>13.66800000000006</v>
+      </c>
+      <c r="H6">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="I6">
+        <v>19.350000000000023</v>
+      </c>
+      <c r="J6">
+        <v>13.668000000000006</v>
+      </c>
+      <c r="K6">
         <v>14.069999999999999</v>
       </c>
-      <c r="I5">
-        <v>24.699999999999996</v>
-      </c>
-      <c r="J5">
-        <v>14.07</v>
-      </c>
-      <c r="K5">
-        <v>14.07</v>
-      </c>
-      <c r="L5">
-        <v>15.750000000000005</v>
-      </c>
-      <c r="M5">
-        <v>15.749999999999996</v>
-      </c>
-      <c r="N5">
-        <v>14.07</v>
-      </c>
-      <c r="O5">
-        <v>15.750000000000002</v>
-      </c>
-      <c r="P5">
-        <v>13.860000000000001</v>
-      </c>
-      <c r="Q5">
-        <v>14.07</v>
-      </c>
-      <c r="R5">
-        <v>17.290001881033536</v>
-      </c>
-      <c r="S5">
-        <v>20.25</v>
-      </c>
-      <c r="T5">
-        <v>15.750000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6">
-        <v>16.17</v>
-      </c>
-      <c r="B6">
-        <v>21.200000000000003</v>
-      </c>
-      <c r="C6">
-        <v>15.750000000000007</v>
-      </c>
-      <c r="D6">
-        <v>25.410000000000004</v>
-      </c>
-      <c r="E6">
-        <v>15.750000000000007</v>
-      </c>
-      <c r="F6">
-        <v>14.07</v>
-      </c>
-      <c r="G6">
-        <v>14.07</v>
-      </c>
-      <c r="H6">
-        <v>14.07</v>
-      </c>
-      <c r="I6">
-        <v>24.699999999999996</v>
-      </c>
-      <c r="J6">
-        <v>14.07</v>
-      </c>
-      <c r="K6">
-        <v>14.07</v>
-      </c>
       <c r="L6">
-        <v>15.750000000000004</v>
+        <v>16.875</v>
       </c>
       <c r="M6">
-        <v>15.749999999999995</v>
+        <v>16.164999999999999</v>
       </c>
       <c r="N6">
-        <v>14.07</v>
+        <v>14.321999999999997</v>
       </c>
       <c r="O6">
-        <v>15.750000000000005</v>
+        <v>16.164999999999999</v>
       </c>
       <c r="P6">
-        <v>13.860000000000001</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="Q6">
-        <v>14.07</v>
+        <v>13.668000000000005</v>
       </c>
       <c r="R6">
-        <v>17.290001881033533</v>
+        <v>17.29</v>
       </c>
       <c r="S6">
-        <v>20.25</v>
+        <v>19.349999999999998</v>
       </c>
       <c r="T6">
-        <v>15.750000000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>14.322000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>16.17</v>
+        <v>16.632000000000001</v>
       </c>
       <c r="B7">
-        <v>21.200000000000006</v>
+        <v>19.350000000000023</v>
       </c>
       <c r="C7">
-        <v>15.750000000000007</v>
+        <v>19.349999999995664</v>
       </c>
       <c r="D7">
-        <v>25.410000000000004</v>
+        <v>24.948000000000004</v>
       </c>
       <c r="E7">
-        <v>15.750000000000005</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="F7">
-        <v>14.070000000000002</v>
+        <v>13.667999999874153</v>
       </c>
       <c r="G7">
-        <v>14.07</v>
+        <v>13.66800000000006</v>
       </c>
       <c r="H7">
-        <v>14.07</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="I7">
-        <v>24.699999999999996</v>
+        <v>19.350000000000023</v>
       </c>
       <c r="J7">
-        <v>14.07</v>
+        <v>13.668000000000008</v>
       </c>
       <c r="K7">
-        <v>14.07</v>
+        <v>14.069999999999999</v>
       </c>
       <c r="L7">
-        <v>15.750000000000004</v>
+        <v>16.875</v>
       </c>
       <c r="M7">
-        <v>15.749999999999998</v>
+        <v>16.164999999999999</v>
       </c>
       <c r="N7">
-        <v>14.070000000000002</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="O7">
-        <v>15.750000000000004</v>
+        <v>16.164999999999999</v>
       </c>
       <c r="P7">
-        <v>13.860000000000001</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="Q7">
-        <v>14.07</v>
+        <v>13.668000000000003</v>
       </c>
       <c r="R7">
-        <v>17.290001881033536</v>
+        <v>17.29</v>
       </c>
       <c r="S7">
-        <v>20.25</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="T7">
-        <v>15.750000000000007</v>
+        <v>14.321999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2365,36 +2364,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A516F587-50D5-4946-8A05-61DBF68E56A5}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>15.750000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>19.350000000000016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>25.410000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>24.948000000000008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>14.07</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>14.321999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>25.410000000000004</v>
+        <v>24.948000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -2403,14 +2402,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076D6459-55F9-46FB-87A2-F287037247D6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2418,60 +2417,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>21910.56525</v>
+        <v>21580.81982500001</v>
       </c>
       <c r="B2">
-        <v>-15435.72272084398</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>-1788.1012354219909</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>-3207.0625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>-1096.6132354219899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>-3207.0625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>-3207.0625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>-2929.82075</v>
+        <v>9037.8719999989426</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step_2_4.xlsx
+++ b/A2_results_step_2_4.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d63f66d86bcfcc9a/Master Sustainable Energy/3rd Semester/Renewables in electricity markets/Assignment 1/RenewablesInElectricityMarkets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="115_{14034D0A-50AF-4F97-8447-444B917B7D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="0" windowWidth="16200" windowHeight="9970" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="DC_flow_df" sheetId="1" r:id="rId1"/>
-    <sheet name="Ps_nodal_df" sheetId="2" r:id="rId2"/>
-    <sheet name="Po_nodal_df" sheetId="3" r:id="rId3"/>
-    <sheet name="Dk_nodal_df" sheetId="4" r:id="rId4"/>
-    <sheet name="Clearing_df" sheetId="5" r:id="rId5"/>
-    <sheet name="Price_s_df" sheetId="6" r:id="rId6"/>
-    <sheet name="SW_vs_Prof_df" sheetId="7" r:id="rId7"/>
+    <sheet name="Ps_nodal_df" r:id="rId5" sheetId="2"/>
+    <sheet name="Po_nodal_df" r:id="rId6" sheetId="3"/>
+    <sheet name="Dk_nodal_df" r:id="rId7" sheetId="4"/>
+    <sheet name="Clearing_df" r:id="rId8" sheetId="5"/>
+    <sheet name="Price_s_df" r:id="rId9" sheetId="6"/>
+    <sheet name="SW_vs_Prof_df" r:id="rId10" sheetId="7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>N1</t>
   </si>
@@ -465,14 +465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA56555C-C743-4A9F-B70F-7A3AEB091A3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,124 +492,124 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B2">
-        <v>119.89416666666669</v>
+        <v>123.88166666666669</v>
       </c>
       <c r="C2">
-        <v>188.88083333333336</v>
+        <v>192.99333333333337</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>-119.89416666666669</v>
+        <v>-123.88166666666669</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C3">
-        <v>68.986666666666665</v>
+        <v>69.11166666666666</v>
       </c>
       <c r="D3">
-        <v>400.90749999999997</v>
+        <v>404.7699999999999</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
-        <v>-188.88083333333336</v>
+        <v>-192.99333333333337</v>
       </c>
       <c r="B4">
-        <v>-68.986666666666665</v>
+        <v>-69.11166666666666</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F4">
-        <v>313.46749999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>317.705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="B5">
-        <v>-400.90749999999997</v>
+        <v>-404.7699999999999</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E5">
-        <v>102.16083333333336</v>
+        <v>105.52333333333333</v>
       </c>
       <c r="F5">
-        <v>-18.453333333333344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-17.953333333333322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="D6">
-        <v>-102.16083333333336</v>
+        <v>-105.52333333333333</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6">
-        <v>-120.61416666666672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-123.47666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-0.0</v>
       </c>
       <c r="C7">
-        <v>-313.46749999999997</v>
+        <v>-317.705</v>
       </c>
       <c r="D7">
-        <v>18.453333333333344</v>
+        <v>17.953333333333322</v>
       </c>
       <c r="E7">
-        <v>120.61416666666672</v>
+        <v>123.47666666666666</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -618,14 +618,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C75455B-F654-4C09-B459-9C6785D9EA93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,404 +645,404 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>0</v>
+        <v>92.00000000000003</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C2">
-        <v>154.99999999999989</v>
+        <v>155.0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>119.49999999999991</v>
+        <v>119.50000000000003</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C3">
-        <v>155</v>
+        <v>155.0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F3">
-        <v>2.8421709430404007E-14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
-        <v>93.5</v>
+        <v>93.50000000000001</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C4">
-        <v>155</v>
+        <v>155.0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
-        <v>155</v>
+        <v>155.0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C5">
-        <v>155</v>
+        <v>155.0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F5">
         <v>139.50000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6">
-        <v>5.6843418860808015E-14</v>
+        <v>0.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C6">
-        <v>88.999999999999829</v>
+        <v>88.99999999999989</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C9">
-        <v>8.5</v>
+        <v>8.50000000000054</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9">
-        <v>1.4210854715202004E-14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
-        <v>143.99999999999986</v>
+        <v>143.9999999999999</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C10">
-        <v>155.00000000000006</v>
+        <v>155.0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C12">
-        <v>66.499999999999943</v>
+        <v>66.50000000000014</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
-        <v>0</v>
+        <v>37.49999999999994</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C13">
-        <v>155</v>
+        <v>155.0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C14">
-        <v>155.00000000000003</v>
+        <v>155.0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C15">
         <v>82.5</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C16">
-        <v>155</v>
+        <v>155.0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C18">
-        <v>115.99999999999994</v>
+        <v>116.0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
-        <v>0</v>
+        <v>32.50000000000023</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C19">
-        <v>154.99999999999983</v>
+        <v>155.0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
-        <v>133.00000000000009</v>
+        <v>133.0000000000001</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C20">
-        <v>155</v>
+        <v>155.0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
-        <v>0</v>
+        <v>5.684341886080802e-14</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C21">
         <v>113.99999999999989</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1051,14 +1051,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F0A3DB-C10A-4768-AF25-11E40522415A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1078,404 +1078,404 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>427.5</v>
       </c>
       <c r="B2">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>247.50000000000003</v>
       </c>
       <c r="B3">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C3">
-        <v>210</v>
+        <v>210.0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E3">
-        <v>1.1368683772161603E-13</v>
+        <v>0.0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
-        <v>234</v>
+        <v>234.0</v>
       </c>
       <c r="B4">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="B5">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E5">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
-        <v>432</v>
+        <v>432.0</v>
       </c>
       <c r="B6">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>121.50000000000001</v>
       </c>
       <c r="B7">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C7">
-        <v>157.99999999999994</v>
+        <v>158.0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
-        <v>405</v>
+        <v>405.0</v>
       </c>
       <c r="B8">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C8">
-        <v>164.99999999999989</v>
+        <v>165.0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>121.50000000000001</v>
       </c>
       <c r="B9">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C9">
-        <v>210</v>
+        <v>209.99999999999937</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>247.50000000000003</v>
       </c>
       <c r="B10">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
-        <v>432</v>
+        <v>432.0</v>
       </c>
       <c r="B11">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C11">
-        <v>187.50000000000011</v>
+        <v>187.5000000000001</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
-        <v>171</v>
+        <v>171.0</v>
       </c>
       <c r="B12">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C12">
-        <v>210</v>
+        <v>209.99999999999991</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
-        <v>315</v>
+        <v>315.0</v>
       </c>
       <c r="B13">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>238.5</v>
       </c>
       <c r="B14">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>373.5</v>
       </c>
       <c r="B15">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E15">
-        <v>1.1368683772161603E-13</v>
+        <v>0.0</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>247.50000000000003</v>
       </c>
       <c r="B16">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>409.5</v>
       </c>
       <c r="B17">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>121.50000000000001</v>
       </c>
       <c r="B18">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C18">
-        <v>210</v>
+        <v>210.0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
-        <v>432</v>
+        <v>432.0</v>
       </c>
       <c r="B19">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E19">
-        <v>32.500000000000114</v>
+        <v>0.0</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>121.50000000000001</v>
       </c>
       <c r="B20">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C20">
-        <v>210</v>
+        <v>210.0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
-        <v>342</v>
+        <v>342.0</v>
       </c>
       <c r="B21">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E21">
-        <v>1.1368683772161603E-13</v>
+        <v>0.0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1484,14 +1484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B25A5-9ABD-4E17-8DE8-102B13F027E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1511,404 +1511,404 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C2">
-        <v>114</v>
+        <v>113.99999999999999</v>
       </c>
       <c r="D2">
-        <v>428</v>
+        <v>428.0</v>
       </c>
       <c r="E2">
-        <v>163.00000000000045</v>
+        <v>255.0</v>
       </c>
       <c r="F2">
         <v>227.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C3">
-        <v>162</v>
+        <v>162.0</v>
       </c>
       <c r="D3">
-        <v>428</v>
+        <v>428.0</v>
       </c>
       <c r="E3">
-        <v>297</v>
+        <v>297.0</v>
       </c>
       <c r="F3">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>195.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C4">
-        <v>144</v>
+        <v>144.0</v>
       </c>
       <c r="D4">
-        <v>336</v>
+        <v>336.0</v>
       </c>
       <c r="E4">
-        <v>180</v>
+        <v>180.0</v>
       </c>
       <c r="F4">
         <v>172.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C5">
-        <v>218</v>
+        <v>218.0</v>
       </c>
       <c r="D5">
-        <v>320</v>
+        <v>320.0</v>
       </c>
       <c r="E5">
-        <v>279</v>
+        <v>279.0</v>
       </c>
       <c r="F5">
         <v>152.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C6">
-        <v>176</v>
+        <v>176.0</v>
       </c>
       <c r="D6">
-        <v>288</v>
+        <v>288.0</v>
       </c>
       <c r="E6">
-        <v>282</v>
+        <v>282.0</v>
       </c>
       <c r="F6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>125.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7">
-        <v>216</v>
+        <v>216.0</v>
       </c>
       <c r="E7">
-        <v>276</v>
+        <v>276.0</v>
       </c>
       <c r="F7">
         <v>137.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8">
-        <v>428</v>
+        <v>428.0</v>
       </c>
       <c r="E8">
-        <v>297</v>
+        <v>297.0</v>
       </c>
       <c r="F8">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>195.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D9">
-        <v>328</v>
+        <v>328.0</v>
       </c>
       <c r="E9">
-        <v>162</v>
+        <v>162.0</v>
       </c>
       <c r="F9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C10">
-        <v>164</v>
+        <v>164.0</v>
       </c>
       <c r="D10">
-        <v>268</v>
+        <v>268.0</v>
       </c>
       <c r="E10">
-        <v>192</v>
+        <v>192.0</v>
       </c>
       <c r="F10">
         <v>272.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C11">
-        <v>218</v>
+        <v>218.0</v>
       </c>
       <c r="D11">
-        <v>320</v>
+        <v>320.0</v>
       </c>
       <c r="E11">
-        <v>279</v>
+        <v>279.0</v>
       </c>
       <c r="F11">
         <v>152.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C12">
-        <v>168</v>
+        <v>168.0</v>
       </c>
       <c r="D12">
-        <v>216</v>
+        <v>216.0</v>
       </c>
       <c r="E12">
-        <v>276</v>
+        <v>276.0</v>
       </c>
       <c r="F12">
         <v>137.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13">
-        <v>372</v>
+        <v>372.0</v>
       </c>
       <c r="E13">
-        <v>228</v>
+        <v>228.0</v>
       </c>
       <c r="F13">
-        <v>220.00000000000011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>257.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C14">
-        <v>48.500000000000199</v>
+        <v>48.50000000000023</v>
       </c>
       <c r="D14">
-        <v>288</v>
+        <v>288.0</v>
       </c>
       <c r="E14">
-        <v>282</v>
+        <v>282.0</v>
       </c>
       <c r="F14">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>125.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C15">
-        <v>116</v>
+        <v>115.99999999999999</v>
       </c>
       <c r="D15">
-        <v>328</v>
+        <v>328.0</v>
       </c>
       <c r="E15">
-        <v>162</v>
+        <v>162.0</v>
       </c>
       <c r="F15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C16">
-        <v>62.5</v>
+        <v>62.500000000000114</v>
       </c>
       <c r="D16">
-        <v>328</v>
+        <v>328.0</v>
       </c>
       <c r="E16">
-        <v>162</v>
+        <v>162.0</v>
       </c>
       <c r="F16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C17">
-        <v>164</v>
+        <v>164.0</v>
       </c>
       <c r="D17">
-        <v>268</v>
+        <v>268.0</v>
       </c>
       <c r="E17">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="F17">
         <v>272.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C18">
-        <v>168</v>
+        <v>168.0</v>
       </c>
       <c r="D18">
-        <v>216</v>
+        <v>216.0</v>
       </c>
       <c r="E18">
-        <v>276</v>
+        <v>276.0</v>
       </c>
       <c r="F18">
         <v>137.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C19">
-        <v>218</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="D19">
-        <v>320</v>
+        <v>320.0</v>
       </c>
       <c r="E19">
-        <v>279</v>
+        <v>279.0</v>
       </c>
       <c r="F19">
         <v>152.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C20">
         <v>218.00000000000003</v>
       </c>
       <c r="D20">
-        <v>320</v>
+        <v>320.0</v>
       </c>
       <c r="E20">
-        <v>279</v>
+        <v>279.0</v>
       </c>
       <c r="F20">
         <v>152.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="A21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C21">
-        <v>116</v>
+        <v>115.99999999999999</v>
       </c>
       <c r="D21">
-        <v>328</v>
+        <v>328.0</v>
       </c>
       <c r="E21">
-        <v>162</v>
+        <v>162.0</v>
       </c>
       <c r="F21">
-        <v>200</v>
+        <v>200.0</v>
       </c>
     </row>
   </sheetData>
@@ -1917,14 +1917,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275D879-7FBC-4515-9A75-48BD71CC6B1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1986,376 +1986,376 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>16.632000000000012</v>
       </c>
       <c r="B2">
-        <v>19.350000000000016</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="C2">
-        <v>19.349999999995667</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="D2">
-        <v>24.948000000000029</v>
+        <v>24.94800000000003</v>
       </c>
       <c r="E2">
-        <v>14.321999999999999</v>
+        <v>14.322</v>
       </c>
       <c r="F2">
-        <v>13.667999999874153</v>
+        <v>13.667999999932372</v>
       </c>
       <c r="G2">
-        <v>13.668000000000058</v>
+        <v>13.667999999999994</v>
       </c>
       <c r="H2">
-        <v>14.322000000000001</v>
+        <v>13.667999999999937</v>
       </c>
       <c r="I2">
-        <v>19.350000000000016</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="J2">
-        <v>13.668000000000006</v>
+        <v>13.667999999999994</v>
       </c>
       <c r="K2">
-        <v>14.069999999999999</v>
+        <v>14.069999999948756</v>
       </c>
       <c r="L2">
         <v>16.875</v>
       </c>
       <c r="M2">
-        <v>16.164999999999999</v>
+        <v>16.165</v>
       </c>
       <c r="N2">
-        <v>14.321999999999997</v>
+        <v>14.322</v>
       </c>
       <c r="O2">
-        <v>16.164999999999999</v>
+        <v>16.165</v>
       </c>
       <c r="P2">
-        <v>14.321999999999999</v>
+        <v>14.322000000000013</v>
       </c>
       <c r="Q2">
-        <v>13.667999999999999</v>
+        <v>14.322</v>
       </c>
       <c r="R2">
-        <v>17.289999999999988</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="S2">
-        <v>19.350000000000016</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="T2">
-        <v>14.321999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+        <v>14.322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>16.632000000000005</v>
       </c>
       <c r="B3">
-        <v>19.350000000000019</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="C3">
-        <v>19.349999999995664</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="D3">
         <v>24.948000000000008</v>
       </c>
       <c r="E3">
-        <v>14.321999999999999</v>
+        <v>14.322</v>
       </c>
       <c r="F3">
-        <v>13.667999999874151</v>
+        <v>13.667999999932373</v>
       </c>
       <c r="G3">
-        <v>13.668000000000056</v>
+        <v>13.668000000000001</v>
       </c>
       <c r="H3">
-        <v>14.321999999999999</v>
+        <v>13.667999999999935</v>
       </c>
       <c r="I3">
-        <v>19.350000000000019</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="J3">
-        <v>13.668000000000006</v>
+        <v>13.668000000000001</v>
       </c>
       <c r="K3">
-        <v>14.069999999999997</v>
+        <v>14.069999999948761</v>
       </c>
       <c r="L3">
         <v>16.875</v>
       </c>
       <c r="M3">
-        <v>16.164999999999999</v>
+        <v>16.165</v>
       </c>
       <c r="N3">
-        <v>14.321999999999996</v>
+        <v>14.322</v>
       </c>
       <c r="O3">
-        <v>16.164999999999999</v>
+        <v>16.165</v>
       </c>
       <c r="P3">
-        <v>14.321999999999999</v>
+        <v>14.322000000000006</v>
       </c>
       <c r="Q3">
-        <v>13.668000000000003</v>
+        <v>14.322000000000003</v>
       </c>
       <c r="R3">
-        <v>17.289999999999996</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="S3">
-        <v>19.350000000000005</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="T3">
-        <v>14.321999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+        <v>14.322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>16.631999999999998</v>
       </c>
       <c r="B4">
-        <v>19.350000000000023</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="C4">
-        <v>19.349999999995667</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="D4">
         <v>24.948</v>
       </c>
       <c r="E4">
-        <v>14.321999999999999</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="F4">
-        <v>13.667999999874155</v>
+        <v>13.667999999932373</v>
       </c>
       <c r="G4">
-        <v>13.66800000000006</v>
+        <v>13.668000000000003</v>
       </c>
       <c r="H4">
-        <v>14.321999999999999</v>
+        <v>13.667999999999935</v>
       </c>
       <c r="I4">
-        <v>19.350000000000023</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="J4">
-        <v>13.66800000000001</v>
+        <v>13.668000000000003</v>
       </c>
       <c r="K4">
-        <v>14.07</v>
+        <v>14.069999999948765</v>
       </c>
       <c r="L4">
         <v>16.875</v>
       </c>
       <c r="M4">
-        <v>16.164999999999999</v>
+        <v>16.165</v>
       </c>
       <c r="N4">
-        <v>14.321999999999999</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="O4">
-        <v>16.164999999999999</v>
+        <v>16.165</v>
       </c>
       <c r="P4">
-        <v>14.321999999999999</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="Q4">
-        <v>13.668000000000003</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="R4">
-        <v>17.289999999999996</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="S4">
-        <v>19.350000000000009</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="T4">
-        <v>14.321999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+        <v>14.322000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
-        <v>16.632000000000001</v>
+        <v>16.632</v>
       </c>
       <c r="B5">
-        <v>19.350000000000023</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="C5">
-        <v>19.349999999995664</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="D5">
         <v>24.948000000000004</v>
       </c>
       <c r="E5">
-        <v>14.321999999999999</v>
+        <v>14.322</v>
       </c>
       <c r="F5">
-        <v>13.667999999874151</v>
+        <v>13.667999999932375</v>
       </c>
       <c r="G5">
-        <v>13.668000000000058</v>
+        <v>13.668000000000005</v>
       </c>
       <c r="H5">
-        <v>14.321999999999999</v>
+        <v>13.667999999999935</v>
       </c>
       <c r="I5">
-        <v>19.350000000000023</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="J5">
-        <v>13.668000000000006</v>
+        <v>13.668000000000005</v>
       </c>
       <c r="K5">
-        <v>14.069999999999997</v>
+        <v>14.069999999948763</v>
       </c>
       <c r="L5">
         <v>16.875</v>
       </c>
       <c r="M5">
-        <v>16.164999999999999</v>
+        <v>16.165</v>
       </c>
       <c r="N5">
-        <v>14.321999999999999</v>
+        <v>14.322</v>
       </c>
       <c r="O5">
-        <v>16.164999999999999</v>
+        <v>16.165</v>
       </c>
       <c r="P5">
-        <v>14.322000000000001</v>
+        <v>14.322000000000003</v>
       </c>
       <c r="Q5">
-        <v>13.668000000000003</v>
+        <v>14.322000000000003</v>
       </c>
       <c r="R5">
-        <v>17.29</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="S5">
-        <v>19.350000000000001</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="T5">
-        <v>14.321999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+        <v>14.322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
-        <v>16.632000000000001</v>
+        <v>16.632</v>
       </c>
       <c r="B6">
-        <v>19.350000000000023</v>
+        <v>17.29000000004808</v>
       </c>
       <c r="C6">
-        <v>19.34999999999566</v>
+        <v>17.29000000004808</v>
       </c>
       <c r="D6">
         <v>24.948000000000004</v>
       </c>
       <c r="E6">
-        <v>14.321999999999997</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="F6">
-        <v>13.667999999874153</v>
+        <v>13.667999999932375</v>
       </c>
       <c r="G6">
-        <v>13.66800000000006</v>
+        <v>13.668000000000006</v>
       </c>
       <c r="H6">
-        <v>14.321999999999999</v>
+        <v>13.667999999999935</v>
       </c>
       <c r="I6">
-        <v>19.350000000000023</v>
+        <v>17.29000000004808</v>
       </c>
       <c r="J6">
         <v>13.668000000000006</v>
       </c>
       <c r="K6">
-        <v>14.069999999999999</v>
+        <v>14.069999999948763</v>
       </c>
       <c r="L6">
         <v>16.875</v>
       </c>
       <c r="M6">
-        <v>16.164999999999999</v>
+        <v>16.165</v>
       </c>
       <c r="N6">
-        <v>14.321999999999997</v>
+        <v>14.322</v>
       </c>
       <c r="O6">
-        <v>16.164999999999999</v>
+        <v>16.165</v>
       </c>
       <c r="P6">
         <v>14.322000000000001</v>
       </c>
       <c r="Q6">
-        <v>13.668000000000005</v>
+        <v>14.322000000000005</v>
       </c>
       <c r="R6">
-        <v>17.29</v>
+        <v>17.29000000004808</v>
       </c>
       <c r="S6">
-        <v>19.349999999999998</v>
+        <v>17.29000000004808</v>
       </c>
       <c r="T6">
-        <v>14.322000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+        <v>14.322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
-        <v>16.632000000000001</v>
+        <v>16.632</v>
       </c>
       <c r="B7">
-        <v>19.350000000000023</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="C7">
-        <v>19.349999999995664</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="D7">
         <v>24.948000000000004</v>
       </c>
       <c r="E7">
-        <v>14.321999999999999</v>
+        <v>14.322</v>
       </c>
       <c r="F7">
-        <v>13.667999999874153</v>
+        <v>13.667999999932373</v>
       </c>
       <c r="G7">
-        <v>13.66800000000006</v>
+        <v>13.668000000000006</v>
       </c>
       <c r="H7">
-        <v>14.321999999999999</v>
+        <v>13.667999999999937</v>
       </c>
       <c r="I7">
-        <v>19.350000000000023</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="J7">
-        <v>13.668000000000008</v>
+        <v>13.668000000000006</v>
       </c>
       <c r="K7">
-        <v>14.069999999999999</v>
+        <v>14.069999999948761</v>
       </c>
       <c r="L7">
         <v>16.875</v>
       </c>
       <c r="M7">
-        <v>16.164999999999999</v>
+        <v>16.165</v>
       </c>
       <c r="N7">
-        <v>14.321999999999999</v>
+        <v>14.322</v>
       </c>
       <c r="O7">
-        <v>16.164999999999999</v>
+        <v>16.165</v>
       </c>
       <c r="P7">
-        <v>14.322000000000001</v>
+        <v>14.322</v>
       </c>
       <c r="Q7">
-        <v>13.668000000000003</v>
+        <v>14.322000000000003</v>
       </c>
       <c r="R7">
-        <v>17.29</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="S7">
-        <v>19.350000000000001</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="T7">
-        <v>14.321999999999999</v>
+        <v>14.322</v>
       </c>
     </row>
   </sheetData>
@@ -2364,34 +2364,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A516F587-50D5-4946-8A05-61DBF68E56A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2">
-        <v>19.350000000000016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>17.290000000048085</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>24.948000000000008</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1">
       <c r="A4">
-        <v>14.321999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>14.322000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>24.948000000000004</v>
       </c>
@@ -2402,14 +2402,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076D6459-55F9-46FB-87A2-F287037247D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2417,12 +2417,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>21580.81982500001</v>
+        <v>21688.96765000001</v>
       </c>
       <c r="B2">
-        <v>9037.8719999989426</v>
+        <v>7084.05850005899</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step_2_4.xlsx
+++ b/A2_results_step_2_4.xlsx
@@ -497,10 +497,10 @@
         <v>0.0</v>
       </c>
       <c r="B2">
-        <v>123.88166666666669</v>
+        <v>119.89416666666669</v>
       </c>
       <c r="C2">
-        <v>192.99333333333337</v>
+        <v>188.88083333333336</v>
       </c>
       <c r="D2">
         <v>0.0</v>
@@ -514,16 +514,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>-123.88166666666669</v>
+        <v>-119.89416666666669</v>
       </c>
       <c r="B3">
         <v>0.0</v>
       </c>
       <c r="C3">
-        <v>69.11166666666666</v>
+        <v>68.98666666666666</v>
       </c>
       <c r="D3">
-        <v>404.7699999999999</v>
+        <v>400.90749999999997</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -534,10 +534,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>-192.99333333333337</v>
+        <v>-188.88083333333336</v>
       </c>
       <c r="B4">
-        <v>-69.11166666666666</v>
+        <v>-68.98666666666666</v>
       </c>
       <c r="C4">
         <v>0.0</v>
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="F4">
-        <v>317.705</v>
+        <v>313.4675</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -557,7 +557,7 @@
         <v>-0.0</v>
       </c>
       <c r="B5">
-        <v>-404.7699999999999</v>
+        <v>-400.90749999999997</v>
       </c>
       <c r="C5">
         <v>-0.0</v>
@@ -566,10 +566,10 @@
         <v>0.0</v>
       </c>
       <c r="E5">
-        <v>105.52333333333333</v>
+        <v>102.16083333333336</v>
       </c>
       <c r="F5">
-        <v>-17.953333333333322</v>
+        <v>-18.453333333333344</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -583,13 +583,13 @@
         <v>-0.0</v>
       </c>
       <c r="D6">
-        <v>-105.52333333333333</v>
+        <v>-102.16083333333336</v>
       </c>
       <c r="E6">
         <v>0.0</v>
       </c>
       <c r="F6">
-        <v>-123.47666666666666</v>
+        <v>-120.61416666666672</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -600,13 +600,13 @@
         <v>-0.0</v>
       </c>
       <c r="C7">
-        <v>-317.705</v>
+        <v>-313.4675</v>
       </c>
       <c r="D7">
-        <v>17.953333333333322</v>
+        <v>18.453333333333344</v>
       </c>
       <c r="E7">
-        <v>123.47666666666666</v>
+        <v>120.61416666666672</v>
       </c>
       <c r="F7">
         <v>0.0</v>
@@ -647,13 +647,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>92.00000000000003</v>
+        <v>0.0</v>
       </c>
       <c r="B2">
         <v>0.0</v>
       </c>
       <c r="C2">
-        <v>155.0</v>
+        <v>154.9999999999999</v>
       </c>
       <c r="D2">
         <v>0.0</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>119.50000000000003</v>
+        <v>119.49999999999991</v>
       </c>
       <c r="B3">
         <v>0.0</v>
@@ -682,12 +682,12 @@
         <v>0.0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>93.50000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="B4">
         <v>0.0</v>
@@ -727,13 +727,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.0</v>
+        <v>5.684341886080802e-14</v>
       </c>
       <c r="B6">
         <v>0.0</v>
       </c>
       <c r="C6">
-        <v>88.99999999999989</v>
+        <v>88.99999999999983</v>
       </c>
       <c r="D6">
         <v>0.0</v>
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C9">
-        <v>8.50000000000054</v>
+        <v>8.5</v>
       </c>
       <c r="D9">
         <v>0.0</v>
@@ -802,18 +802,18 @@
         <v>0.0</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
+        <v>1.4210854715202004e-14</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>143.9999999999999</v>
+        <v>143.99999999999986</v>
       </c>
       <c r="B10">
         <v>0.0</v>
       </c>
       <c r="C10">
-        <v>155.0</v>
+        <v>155.00000000000006</v>
       </c>
       <c r="D10">
         <v>0.0</v>
@@ -853,7 +853,7 @@
         <v>0.0</v>
       </c>
       <c r="C12">
-        <v>66.50000000000014</v>
+        <v>66.49999999999994</v>
       </c>
       <c r="D12">
         <v>0.0</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>37.49999999999994</v>
+        <v>0.0</v>
       </c>
       <c r="B13">
         <v>0.0</v>
@@ -893,7 +893,7 @@
         <v>0.0</v>
       </c>
       <c r="C14">
-        <v>155.0</v>
+        <v>155.00000000000003</v>
       </c>
       <c r="D14">
         <v>0.0</v>
@@ -973,7 +973,7 @@
         <v>0.0</v>
       </c>
       <c r="C18">
-        <v>116.0</v>
+        <v>115.99999999999994</v>
       </c>
       <c r="D18">
         <v>0.0</v>
@@ -987,13 +987,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>32.50000000000023</v>
+        <v>0.0</v>
       </c>
       <c r="B19">
         <v>0.0</v>
       </c>
       <c r="C19">
-        <v>155.0</v>
+        <v>154.99999999999983</v>
       </c>
       <c r="D19">
         <v>0.0</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>133.0000000000001</v>
+        <v>133.00000000000009</v>
       </c>
       <c r="B20">
         <v>0.0</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>5.684341886080802e-14</v>
+        <v>0.0</v>
       </c>
       <c r="B21">
         <v>0.0</v>
@@ -1112,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>1.1368683772161603e-13</v>
       </c>
       <c r="F3">
         <v>0.0</v>
@@ -1186,7 +1186,7 @@
         <v>350.0</v>
       </c>
       <c r="C7">
-        <v>158.0</v>
+        <v>157.99999999999994</v>
       </c>
       <c r="D7">
         <v>0.0</v>
@@ -1206,7 +1206,7 @@
         <v>350.0</v>
       </c>
       <c r="C8">
-        <v>165.0</v>
+        <v>164.9999999999999</v>
       </c>
       <c r="D8">
         <v>0.0</v>
@@ -1226,7 +1226,7 @@
         <v>350.0</v>
       </c>
       <c r="C9">
-        <v>209.99999999999937</v>
+        <v>210.0</v>
       </c>
       <c r="D9">
         <v>0.0</v>
@@ -1286,7 +1286,7 @@
         <v>350.0</v>
       </c>
       <c r="C12">
-        <v>209.99999999999991</v>
+        <v>210.0</v>
       </c>
       <c r="D12">
         <v>0.0</v>
@@ -1352,7 +1352,7 @@
         <v>0.0</v>
       </c>
       <c r="E15">
-        <v>0.0</v>
+        <v>1.1368683772161603e-13</v>
       </c>
       <c r="F15">
         <v>0.0</v>
@@ -1432,7 +1432,7 @@
         <v>0.0</v>
       </c>
       <c r="E19">
-        <v>0.0</v>
+        <v>32.500000000000114</v>
       </c>
       <c r="F19">
         <v>0.0</v>
@@ -1472,7 +1472,7 @@
         <v>0.0</v>
       </c>
       <c r="E21">
-        <v>0.0</v>
+        <v>1.1368683772161603e-13</v>
       </c>
       <c r="F21">
         <v>0.0</v>
@@ -1519,13 +1519,13 @@
         <v>0.0</v>
       </c>
       <c r="C2">
-        <v>113.99999999999999</v>
+        <v>114.0</v>
       </c>
       <c r="D2">
         <v>428.0</v>
       </c>
       <c r="E2">
-        <v>255.0</v>
+        <v>163.00000000000045</v>
       </c>
       <c r="F2">
         <v>227.5</v>
@@ -1748,7 +1748,7 @@
         <v>228.0</v>
       </c>
       <c r="F13">
-        <v>257.5</v>
+        <v>220.0000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1759,7 +1759,7 @@
         <v>0.0</v>
       </c>
       <c r="C14">
-        <v>48.50000000000023</v>
+        <v>48.5000000000002</v>
       </c>
       <c r="D14">
         <v>288.0</v>
@@ -1779,7 +1779,7 @@
         <v>0.0</v>
       </c>
       <c r="C15">
-        <v>115.99999999999999</v>
+        <v>116.0</v>
       </c>
       <c r="D15">
         <v>328.0</v>
@@ -1799,7 +1799,7 @@
         <v>0.0</v>
       </c>
       <c r="C16">
-        <v>62.500000000000114</v>
+        <v>62.5</v>
       </c>
       <c r="D16">
         <v>328.0</v>
@@ -1859,7 +1859,7 @@
         <v>0.0</v>
       </c>
       <c r="C19">
-        <v>218.00000000000003</v>
+        <v>218.0</v>
       </c>
       <c r="D19">
         <v>320.0</v>
@@ -1899,7 +1899,7 @@
         <v>0.0</v>
       </c>
       <c r="C21">
-        <v>115.99999999999999</v>
+        <v>116.0</v>
       </c>
       <c r="D21">
         <v>328.0</v>
@@ -1991,10 +1991,10 @@
         <v>16.632000000000012</v>
       </c>
       <c r="B2">
-        <v>17.290000000048085</v>
+        <v>19.350000000000016</v>
       </c>
       <c r="C2">
-        <v>17.290000000048085</v>
+        <v>19.349999999995667</v>
       </c>
       <c r="D2">
         <v>24.94800000000003</v>
@@ -2003,22 +2003,22 @@
         <v>14.322</v>
       </c>
       <c r="F2">
-        <v>13.667999999932372</v>
+        <v>13.667999999874153</v>
       </c>
       <c r="G2">
-        <v>13.667999999999994</v>
+        <v>13.668000000000058</v>
       </c>
       <c r="H2">
-        <v>13.667999999999937</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="I2">
-        <v>17.290000000048085</v>
+        <v>19.350000000000016</v>
       </c>
       <c r="J2">
-        <v>13.667999999999994</v>
+        <v>13.668000000000006</v>
       </c>
       <c r="K2">
-        <v>14.069999999948756</v>
+        <v>14.069999999999999</v>
       </c>
       <c r="L2">
         <v>16.875</v>
@@ -2027,22 +2027,22 @@
         <v>16.165</v>
       </c>
       <c r="N2">
-        <v>14.322</v>
+        <v>14.321999999999997</v>
       </c>
       <c r="O2">
         <v>16.165</v>
       </c>
       <c r="P2">
-        <v>14.322000000000013</v>
+        <v>14.322</v>
       </c>
       <c r="Q2">
-        <v>14.322</v>
+        <v>13.668</v>
       </c>
       <c r="R2">
-        <v>17.290000000048085</v>
+        <v>17.28999999999999</v>
       </c>
       <c r="S2">
-        <v>17.290000000048085</v>
+        <v>19.350000000000016</v>
       </c>
       <c r="T2">
         <v>14.322</v>
@@ -2053,10 +2053,10 @@
         <v>16.632000000000005</v>
       </c>
       <c r="B3">
-        <v>17.290000000048085</v>
+        <v>19.35000000000002</v>
       </c>
       <c r="C3">
-        <v>17.290000000048085</v>
+        <v>19.349999999995664</v>
       </c>
       <c r="D3">
         <v>24.948000000000008</v>
@@ -2065,22 +2065,22 @@
         <v>14.322</v>
       </c>
       <c r="F3">
-        <v>13.667999999932373</v>
+        <v>13.667999999874151</v>
       </c>
       <c r="G3">
-        <v>13.668000000000001</v>
+        <v>13.668000000000056</v>
       </c>
       <c r="H3">
-        <v>13.667999999999935</v>
+        <v>14.322</v>
       </c>
       <c r="I3">
-        <v>17.290000000048085</v>
+        <v>19.35000000000002</v>
       </c>
       <c r="J3">
-        <v>13.668000000000001</v>
+        <v>13.668000000000006</v>
       </c>
       <c r="K3">
-        <v>14.069999999948761</v>
+        <v>14.069999999999997</v>
       </c>
       <c r="L3">
         <v>16.875</v>
@@ -2089,22 +2089,22 @@
         <v>16.165</v>
       </c>
       <c r="N3">
-        <v>14.322</v>
+        <v>14.321999999999996</v>
       </c>
       <c r="O3">
         <v>16.165</v>
       </c>
       <c r="P3">
-        <v>14.322000000000006</v>
+        <v>14.322</v>
       </c>
       <c r="Q3">
-        <v>14.322000000000003</v>
+        <v>13.668000000000003</v>
       </c>
       <c r="R3">
-        <v>17.290000000048085</v>
+        <v>17.289999999999996</v>
       </c>
       <c r="S3">
-        <v>17.290000000048085</v>
+        <v>19.350000000000005</v>
       </c>
       <c r="T3">
         <v>14.322</v>
@@ -2115,34 +2115,34 @@
         <v>16.631999999999998</v>
       </c>
       <c r="B4">
-        <v>17.290000000048085</v>
+        <v>19.350000000000023</v>
       </c>
       <c r="C4">
-        <v>17.290000000048085</v>
+        <v>19.349999999995667</v>
       </c>
       <c r="D4">
         <v>24.948</v>
       </c>
       <c r="E4">
-        <v>14.322000000000001</v>
+        <v>14.322</v>
       </c>
       <c r="F4">
-        <v>13.667999999932373</v>
+        <v>13.667999999874155</v>
       </c>
       <c r="G4">
-        <v>13.668000000000003</v>
+        <v>13.66800000000006</v>
       </c>
       <c r="H4">
-        <v>13.667999999999935</v>
+        <v>14.322</v>
       </c>
       <c r="I4">
-        <v>17.290000000048085</v>
+        <v>19.350000000000023</v>
       </c>
       <c r="J4">
-        <v>13.668000000000003</v>
+        <v>13.66800000000001</v>
       </c>
       <c r="K4">
-        <v>14.069999999948765</v>
+        <v>14.07</v>
       </c>
       <c r="L4">
         <v>16.875</v>
@@ -2151,25 +2151,25 @@
         <v>16.165</v>
       </c>
       <c r="N4">
-        <v>14.322000000000001</v>
+        <v>14.322</v>
       </c>
       <c r="O4">
         <v>16.165</v>
       </c>
       <c r="P4">
-        <v>14.322000000000001</v>
+        <v>14.322</v>
       </c>
       <c r="Q4">
-        <v>14.322000000000001</v>
+        <v>13.668000000000003</v>
       </c>
       <c r="R4">
-        <v>17.290000000048085</v>
+        <v>17.289999999999996</v>
       </c>
       <c r="S4">
-        <v>17.290000000048085</v>
+        <v>19.35000000000001</v>
       </c>
       <c r="T4">
-        <v>14.322000000000001</v>
+        <v>14.322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2177,10 +2177,10 @@
         <v>16.632</v>
       </c>
       <c r="B5">
-        <v>17.290000000048085</v>
+        <v>19.350000000000023</v>
       </c>
       <c r="C5">
-        <v>17.290000000048085</v>
+        <v>19.349999999995664</v>
       </c>
       <c r="D5">
         <v>24.948000000000004</v>
@@ -2189,22 +2189,22 @@
         <v>14.322</v>
       </c>
       <c r="F5">
-        <v>13.667999999932375</v>
+        <v>13.667999999874151</v>
       </c>
       <c r="G5">
-        <v>13.668000000000005</v>
+        <v>13.668000000000058</v>
       </c>
       <c r="H5">
-        <v>13.667999999999935</v>
+        <v>14.322</v>
       </c>
       <c r="I5">
-        <v>17.290000000048085</v>
+        <v>19.350000000000023</v>
       </c>
       <c r="J5">
-        <v>13.668000000000005</v>
+        <v>13.668000000000006</v>
       </c>
       <c r="K5">
-        <v>14.069999999948763</v>
+        <v>14.069999999999997</v>
       </c>
       <c r="L5">
         <v>16.875</v>
@@ -2219,16 +2219,16 @@
         <v>16.165</v>
       </c>
       <c r="P5">
-        <v>14.322000000000003</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="Q5">
-        <v>14.322000000000003</v>
+        <v>13.668000000000003</v>
       </c>
       <c r="R5">
-        <v>17.290000000048085</v>
+        <v>17.29</v>
       </c>
       <c r="S5">
-        <v>17.290000000048085</v>
+        <v>19.35</v>
       </c>
       <c r="T5">
         <v>14.322</v>
@@ -2239,34 +2239,34 @@
         <v>16.632</v>
       </c>
       <c r="B6">
-        <v>17.29000000004808</v>
+        <v>19.350000000000023</v>
       </c>
       <c r="C6">
-        <v>17.29000000004808</v>
+        <v>19.34999999999566</v>
       </c>
       <c r="D6">
         <v>24.948000000000004</v>
       </c>
       <c r="E6">
-        <v>14.322000000000001</v>
+        <v>14.321999999999997</v>
       </c>
       <c r="F6">
-        <v>13.667999999932375</v>
+        <v>13.667999999874153</v>
       </c>
       <c r="G6">
-        <v>13.668000000000006</v>
+        <v>13.66800000000006</v>
       </c>
       <c r="H6">
-        <v>13.667999999999935</v>
+        <v>14.322</v>
       </c>
       <c r="I6">
-        <v>17.29000000004808</v>
+        <v>19.350000000000023</v>
       </c>
       <c r="J6">
         <v>13.668000000000006</v>
       </c>
       <c r="K6">
-        <v>14.069999999948763</v>
+        <v>14.069999999999999</v>
       </c>
       <c r="L6">
         <v>16.875</v>
@@ -2275,7 +2275,7 @@
         <v>16.165</v>
       </c>
       <c r="N6">
-        <v>14.322</v>
+        <v>14.321999999999997</v>
       </c>
       <c r="O6">
         <v>16.165</v>
@@ -2284,16 +2284,16 @@
         <v>14.322000000000001</v>
       </c>
       <c r="Q6">
-        <v>14.322000000000005</v>
+        <v>13.668000000000005</v>
       </c>
       <c r="R6">
-        <v>17.29000000004808</v>
+        <v>17.29</v>
       </c>
       <c r="S6">
-        <v>17.29000000004808</v>
+        <v>19.349999999999998</v>
       </c>
       <c r="T6">
-        <v>14.322</v>
+        <v>14.322000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -2301,10 +2301,10 @@
         <v>16.632</v>
       </c>
       <c r="B7">
-        <v>17.290000000048085</v>
+        <v>19.350000000000023</v>
       </c>
       <c r="C7">
-        <v>17.290000000048085</v>
+        <v>19.349999999995664</v>
       </c>
       <c r="D7">
         <v>24.948000000000004</v>
@@ -2313,22 +2313,22 @@
         <v>14.322</v>
       </c>
       <c r="F7">
-        <v>13.667999999932373</v>
+        <v>13.667999999874153</v>
       </c>
       <c r="G7">
-        <v>13.668000000000006</v>
+        <v>13.66800000000006</v>
       </c>
       <c r="H7">
-        <v>13.667999999999937</v>
+        <v>14.322</v>
       </c>
       <c r="I7">
-        <v>17.290000000048085</v>
+        <v>19.350000000000023</v>
       </c>
       <c r="J7">
-        <v>13.668000000000006</v>
+        <v>13.668000000000008</v>
       </c>
       <c r="K7">
-        <v>14.069999999948761</v>
+        <v>14.069999999999999</v>
       </c>
       <c r="L7">
         <v>16.875</v>
@@ -2343,16 +2343,16 @@
         <v>16.165</v>
       </c>
       <c r="P7">
-        <v>14.322</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="Q7">
-        <v>14.322000000000003</v>
+        <v>13.668000000000003</v>
       </c>
       <c r="R7">
-        <v>17.290000000048085</v>
+        <v>17.29</v>
       </c>
       <c r="S7">
-        <v>17.290000000048085</v>
+        <v>19.35</v>
       </c>
       <c r="T7">
         <v>14.322</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>17.290000000048085</v>
+        <v>19.350000000000016</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2388,7 +2388,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>14.322000000000001</v>
+        <v>14.322</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2419,10 +2419,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>21688.96765000001</v>
+        <v>21580.81982500001</v>
       </c>
       <c r="B2">
-        <v>7084.05850005899</v>
+        <v>9037.871999998943</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step_2_4.xlsx
+++ b/A2_results_step_2_4.xlsx
@@ -497,10 +497,10 @@
         <v>0.0</v>
       </c>
       <c r="B2">
-        <v>119.89416666666669</v>
+        <v>123.88166666666669</v>
       </c>
       <c r="C2">
-        <v>188.88083333333336</v>
+        <v>192.99333333333337</v>
       </c>
       <c r="D2">
         <v>0.0</v>
@@ -514,16 +514,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>-119.89416666666669</v>
+        <v>-123.88166666666669</v>
       </c>
       <c r="B3">
         <v>0.0</v>
       </c>
       <c r="C3">
-        <v>68.98666666666666</v>
+        <v>69.11166666666666</v>
       </c>
       <c r="D3">
-        <v>400.90749999999997</v>
+        <v>404.7699999999999</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -534,10 +534,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>-188.88083333333336</v>
+        <v>-192.99333333333337</v>
       </c>
       <c r="B4">
-        <v>-68.98666666666666</v>
+        <v>-69.11166666666666</v>
       </c>
       <c r="C4">
         <v>0.0</v>
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="F4">
-        <v>313.4675</v>
+        <v>317.705</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -557,7 +557,7 @@
         <v>-0.0</v>
       </c>
       <c r="B5">
-        <v>-400.90749999999997</v>
+        <v>-404.7699999999999</v>
       </c>
       <c r="C5">
         <v>-0.0</v>
@@ -566,10 +566,10 @@
         <v>0.0</v>
       </c>
       <c r="E5">
-        <v>102.16083333333336</v>
+        <v>105.52333333333333</v>
       </c>
       <c r="F5">
-        <v>-18.453333333333344</v>
+        <v>-17.953333333333322</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -583,13 +583,13 @@
         <v>-0.0</v>
       </c>
       <c r="D6">
-        <v>-102.16083333333336</v>
+        <v>-105.52333333333333</v>
       </c>
       <c r="E6">
         <v>0.0</v>
       </c>
       <c r="F6">
-        <v>-120.61416666666672</v>
+        <v>-123.47666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -600,13 +600,13 @@
         <v>-0.0</v>
       </c>
       <c r="C7">
-        <v>-313.4675</v>
+        <v>-317.705</v>
       </c>
       <c r="D7">
-        <v>18.453333333333344</v>
+        <v>17.953333333333322</v>
       </c>
       <c r="E7">
-        <v>120.61416666666672</v>
+        <v>123.47666666666666</v>
       </c>
       <c r="F7">
         <v>0.0</v>
@@ -647,13 +647,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.0</v>
+        <v>92.00000000000003</v>
       </c>
       <c r="B2">
         <v>0.0</v>
       </c>
       <c r="C2">
-        <v>154.9999999999999</v>
+        <v>155.0</v>
       </c>
       <c r="D2">
         <v>0.0</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>119.49999999999991</v>
+        <v>119.50000000000003</v>
       </c>
       <c r="B3">
         <v>0.0</v>
@@ -682,12 +682,12 @@
         <v>0.0</v>
       </c>
       <c r="F3">
-        <v>2.842170943040401e-14</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>93.5</v>
+        <v>93.50000000000001</v>
       </c>
       <c r="B4">
         <v>0.0</v>
@@ -727,13 +727,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>5.684341886080802e-14</v>
+        <v>0.0</v>
       </c>
       <c r="B6">
         <v>0.0</v>
       </c>
       <c r="C6">
-        <v>88.99999999999983</v>
+        <v>88.99999999999989</v>
       </c>
       <c r="D6">
         <v>0.0</v>
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C9">
-        <v>8.5</v>
+        <v>8.50000000000054</v>
       </c>
       <c r="D9">
         <v>0.0</v>
@@ -802,18 +802,18 @@
         <v>0.0</v>
       </c>
       <c r="F9">
-        <v>1.4210854715202004e-14</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>143.99999999999986</v>
+        <v>143.9999999999999</v>
       </c>
       <c r="B10">
         <v>0.0</v>
       </c>
       <c r="C10">
-        <v>155.00000000000006</v>
+        <v>155.0</v>
       </c>
       <c r="D10">
         <v>0.0</v>
@@ -853,7 +853,7 @@
         <v>0.0</v>
       </c>
       <c r="C12">
-        <v>66.49999999999994</v>
+        <v>66.50000000000014</v>
       </c>
       <c r="D12">
         <v>0.0</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>0.0</v>
+        <v>37.49999999999994</v>
       </c>
       <c r="B13">
         <v>0.0</v>
@@ -893,7 +893,7 @@
         <v>0.0</v>
       </c>
       <c r="C14">
-        <v>155.00000000000003</v>
+        <v>155.0</v>
       </c>
       <c r="D14">
         <v>0.0</v>
@@ -973,7 +973,7 @@
         <v>0.0</v>
       </c>
       <c r="C18">
-        <v>115.99999999999994</v>
+        <v>116.0</v>
       </c>
       <c r="D18">
         <v>0.0</v>
@@ -987,13 +987,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>0.0</v>
+        <v>32.50000000000023</v>
       </c>
       <c r="B19">
         <v>0.0</v>
       </c>
       <c r="C19">
-        <v>154.99999999999983</v>
+        <v>155.0</v>
       </c>
       <c r="D19">
         <v>0.0</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>133.00000000000009</v>
+        <v>133.0000000000001</v>
       </c>
       <c r="B20">
         <v>0.0</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>0.0</v>
+        <v>5.684341886080802e-14</v>
       </c>
       <c r="B21">
         <v>0.0</v>
@@ -1112,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="E3">
-        <v>1.1368683772161603e-13</v>
+        <v>0.0</v>
       </c>
       <c r="F3">
         <v>0.0</v>
@@ -1186,7 +1186,7 @@
         <v>350.0</v>
       </c>
       <c r="C7">
-        <v>157.99999999999994</v>
+        <v>158.0</v>
       </c>
       <c r="D7">
         <v>0.0</v>
@@ -1206,7 +1206,7 @@
         <v>350.0</v>
       </c>
       <c r="C8">
-        <v>164.9999999999999</v>
+        <v>165.0</v>
       </c>
       <c r="D8">
         <v>0.0</v>
@@ -1226,7 +1226,7 @@
         <v>350.0</v>
       </c>
       <c r="C9">
-        <v>210.0</v>
+        <v>209.99999999999937</v>
       </c>
       <c r="D9">
         <v>0.0</v>
@@ -1286,7 +1286,7 @@
         <v>350.0</v>
       </c>
       <c r="C12">
-        <v>210.0</v>
+        <v>209.99999999999991</v>
       </c>
       <c r="D12">
         <v>0.0</v>
@@ -1352,7 +1352,7 @@
         <v>0.0</v>
       </c>
       <c r="E15">
-        <v>1.1368683772161603e-13</v>
+        <v>0.0</v>
       </c>
       <c r="F15">
         <v>0.0</v>
@@ -1432,7 +1432,7 @@
         <v>0.0</v>
       </c>
       <c r="E19">
-        <v>32.500000000000114</v>
+        <v>0.0</v>
       </c>
       <c r="F19">
         <v>0.0</v>
@@ -1472,7 +1472,7 @@
         <v>0.0</v>
       </c>
       <c r="E21">
-        <v>1.1368683772161603e-13</v>
+        <v>0.0</v>
       </c>
       <c r="F21">
         <v>0.0</v>
@@ -1519,13 +1519,13 @@
         <v>0.0</v>
       </c>
       <c r="C2">
-        <v>114.0</v>
+        <v>113.99999999999999</v>
       </c>
       <c r="D2">
         <v>428.0</v>
       </c>
       <c r="E2">
-        <v>163.00000000000045</v>
+        <v>255.0</v>
       </c>
       <c r="F2">
         <v>227.5</v>
@@ -1748,7 +1748,7 @@
         <v>228.0</v>
       </c>
       <c r="F13">
-        <v>220.0000000000001</v>
+        <v>257.5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1759,7 +1759,7 @@
         <v>0.0</v>
       </c>
       <c r="C14">
-        <v>48.5000000000002</v>
+        <v>48.50000000000023</v>
       </c>
       <c r="D14">
         <v>288.0</v>
@@ -1779,7 +1779,7 @@
         <v>0.0</v>
       </c>
       <c r="C15">
-        <v>116.0</v>
+        <v>115.99999999999999</v>
       </c>
       <c r="D15">
         <v>328.0</v>
@@ -1799,7 +1799,7 @@
         <v>0.0</v>
       </c>
       <c r="C16">
-        <v>62.5</v>
+        <v>62.500000000000114</v>
       </c>
       <c r="D16">
         <v>328.0</v>
@@ -1859,7 +1859,7 @@
         <v>0.0</v>
       </c>
       <c r="C19">
-        <v>218.0</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="D19">
         <v>320.0</v>
@@ -1899,7 +1899,7 @@
         <v>0.0</v>
       </c>
       <c r="C21">
-        <v>116.0</v>
+        <v>115.99999999999999</v>
       </c>
       <c r="D21">
         <v>328.0</v>
@@ -1991,10 +1991,10 @@
         <v>16.632000000000012</v>
       </c>
       <c r="B2">
-        <v>19.350000000000016</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="C2">
-        <v>19.349999999995667</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="D2">
         <v>24.94800000000003</v>
@@ -2003,22 +2003,22 @@
         <v>14.322</v>
       </c>
       <c r="F2">
-        <v>13.667999999874153</v>
+        <v>13.667999999932372</v>
       </c>
       <c r="G2">
-        <v>13.668000000000058</v>
+        <v>13.667999999999994</v>
       </c>
       <c r="H2">
-        <v>14.322000000000001</v>
+        <v>13.667999999999937</v>
       </c>
       <c r="I2">
-        <v>19.350000000000016</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="J2">
-        <v>13.668000000000006</v>
+        <v>13.667999999999994</v>
       </c>
       <c r="K2">
-        <v>14.069999999999999</v>
+        <v>14.069999999948756</v>
       </c>
       <c r="L2">
         <v>16.875</v>
@@ -2027,22 +2027,22 @@
         <v>16.165</v>
       </c>
       <c r="N2">
-        <v>14.321999999999997</v>
+        <v>14.322</v>
       </c>
       <c r="O2">
         <v>16.165</v>
       </c>
       <c r="P2">
+        <v>14.322000000000013</v>
+      </c>
+      <c r="Q2">
         <v>14.322</v>
       </c>
-      <c r="Q2">
-        <v>13.668</v>
-      </c>
       <c r="R2">
-        <v>17.28999999999999</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="S2">
-        <v>19.350000000000016</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="T2">
         <v>14.322</v>
@@ -2053,10 +2053,10 @@
         <v>16.632000000000005</v>
       </c>
       <c r="B3">
-        <v>19.35000000000002</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="C3">
-        <v>19.349999999995664</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="D3">
         <v>24.948000000000008</v>
@@ -2065,22 +2065,22 @@
         <v>14.322</v>
       </c>
       <c r="F3">
-        <v>13.667999999874151</v>
+        <v>13.667999999932373</v>
       </c>
       <c r="G3">
-        <v>13.668000000000056</v>
+        <v>13.668000000000001</v>
       </c>
       <c r="H3">
-        <v>14.322</v>
+        <v>13.667999999999935</v>
       </c>
       <c r="I3">
-        <v>19.35000000000002</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="J3">
-        <v>13.668000000000006</v>
+        <v>13.668000000000001</v>
       </c>
       <c r="K3">
-        <v>14.069999999999997</v>
+        <v>14.069999999948761</v>
       </c>
       <c r="L3">
         <v>16.875</v>
@@ -2089,22 +2089,22 @@
         <v>16.165</v>
       </c>
       <c r="N3">
-        <v>14.321999999999996</v>
+        <v>14.322</v>
       </c>
       <c r="O3">
         <v>16.165</v>
       </c>
       <c r="P3">
-        <v>14.322</v>
+        <v>14.322000000000006</v>
       </c>
       <c r="Q3">
-        <v>13.668000000000003</v>
+        <v>14.322000000000003</v>
       </c>
       <c r="R3">
-        <v>17.289999999999996</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="S3">
-        <v>19.350000000000005</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="T3">
         <v>14.322</v>
@@ -2115,34 +2115,34 @@
         <v>16.631999999999998</v>
       </c>
       <c r="B4">
-        <v>19.350000000000023</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="C4">
-        <v>19.349999999995667</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="D4">
         <v>24.948</v>
       </c>
       <c r="E4">
-        <v>14.322</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="F4">
-        <v>13.667999999874155</v>
+        <v>13.667999999932373</v>
       </c>
       <c r="G4">
-        <v>13.66800000000006</v>
+        <v>13.668000000000003</v>
       </c>
       <c r="H4">
-        <v>14.322</v>
+        <v>13.667999999999935</v>
       </c>
       <c r="I4">
-        <v>19.350000000000023</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="J4">
-        <v>13.66800000000001</v>
+        <v>13.668000000000003</v>
       </c>
       <c r="K4">
-        <v>14.07</v>
+        <v>14.069999999948765</v>
       </c>
       <c r="L4">
         <v>16.875</v>
@@ -2151,25 +2151,25 @@
         <v>16.165</v>
       </c>
       <c r="N4">
-        <v>14.322</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="O4">
         <v>16.165</v>
       </c>
       <c r="P4">
-        <v>14.322</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="Q4">
-        <v>13.668000000000003</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="R4">
-        <v>17.289999999999996</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="S4">
-        <v>19.35000000000001</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="T4">
-        <v>14.322</v>
+        <v>14.322000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2177,10 +2177,10 @@
         <v>16.632</v>
       </c>
       <c r="B5">
-        <v>19.350000000000023</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="C5">
-        <v>19.349999999995664</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="D5">
         <v>24.948000000000004</v>
@@ -2189,22 +2189,22 @@
         <v>14.322</v>
       </c>
       <c r="F5">
-        <v>13.667999999874151</v>
+        <v>13.667999999932375</v>
       </c>
       <c r="G5">
-        <v>13.668000000000058</v>
+        <v>13.668000000000005</v>
       </c>
       <c r="H5">
-        <v>14.322</v>
+        <v>13.667999999999935</v>
       </c>
       <c r="I5">
-        <v>19.350000000000023</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="J5">
-        <v>13.668000000000006</v>
+        <v>13.668000000000005</v>
       </c>
       <c r="K5">
-        <v>14.069999999999997</v>
+        <v>14.069999999948763</v>
       </c>
       <c r="L5">
         <v>16.875</v>
@@ -2219,16 +2219,16 @@
         <v>16.165</v>
       </c>
       <c r="P5">
-        <v>14.322000000000001</v>
+        <v>14.322000000000003</v>
       </c>
       <c r="Q5">
-        <v>13.668000000000003</v>
+        <v>14.322000000000003</v>
       </c>
       <c r="R5">
-        <v>17.29</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="S5">
-        <v>19.35</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="T5">
         <v>14.322</v>
@@ -2239,34 +2239,34 @@
         <v>16.632</v>
       </c>
       <c r="B6">
-        <v>19.350000000000023</v>
+        <v>17.29000000004808</v>
       </c>
       <c r="C6">
-        <v>19.34999999999566</v>
+        <v>17.29000000004808</v>
       </c>
       <c r="D6">
         <v>24.948000000000004</v>
       </c>
       <c r="E6">
-        <v>14.321999999999997</v>
+        <v>14.322000000000001</v>
       </c>
       <c r="F6">
-        <v>13.667999999874153</v>
+        <v>13.667999999932375</v>
       </c>
       <c r="G6">
-        <v>13.66800000000006</v>
+        <v>13.668000000000006</v>
       </c>
       <c r="H6">
-        <v>14.322</v>
+        <v>13.667999999999935</v>
       </c>
       <c r="I6">
-        <v>19.350000000000023</v>
+        <v>17.29000000004808</v>
       </c>
       <c r="J6">
         <v>13.668000000000006</v>
       </c>
       <c r="K6">
-        <v>14.069999999999999</v>
+        <v>14.069999999948763</v>
       </c>
       <c r="L6">
         <v>16.875</v>
@@ -2275,7 +2275,7 @@
         <v>16.165</v>
       </c>
       <c r="N6">
-        <v>14.321999999999997</v>
+        <v>14.322</v>
       </c>
       <c r="O6">
         <v>16.165</v>
@@ -2284,16 +2284,16 @@
         <v>14.322000000000001</v>
       </c>
       <c r="Q6">
-        <v>13.668000000000005</v>
+        <v>14.322000000000005</v>
       </c>
       <c r="R6">
-        <v>17.29</v>
+        <v>17.29000000004808</v>
       </c>
       <c r="S6">
-        <v>19.349999999999998</v>
+        <v>17.29000000004808</v>
       </c>
       <c r="T6">
-        <v>14.322000000000001</v>
+        <v>14.322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -2301,10 +2301,10 @@
         <v>16.632</v>
       </c>
       <c r="B7">
-        <v>19.350000000000023</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="C7">
-        <v>19.349999999995664</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="D7">
         <v>24.948000000000004</v>
@@ -2313,22 +2313,22 @@
         <v>14.322</v>
       </c>
       <c r="F7">
-        <v>13.667999999874153</v>
+        <v>13.667999999932373</v>
       </c>
       <c r="G7">
-        <v>13.66800000000006</v>
+        <v>13.668000000000006</v>
       </c>
       <c r="H7">
-        <v>14.322</v>
+        <v>13.667999999999937</v>
       </c>
       <c r="I7">
-        <v>19.350000000000023</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="J7">
-        <v>13.668000000000008</v>
+        <v>13.668000000000006</v>
       </c>
       <c r="K7">
-        <v>14.069999999999999</v>
+        <v>14.069999999948761</v>
       </c>
       <c r="L7">
         <v>16.875</v>
@@ -2343,16 +2343,16 @@
         <v>16.165</v>
       </c>
       <c r="P7">
-        <v>14.322000000000001</v>
+        <v>14.322</v>
       </c>
       <c r="Q7">
-        <v>13.668000000000003</v>
+        <v>14.322000000000003</v>
       </c>
       <c r="R7">
-        <v>17.29</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="S7">
-        <v>19.35</v>
+        <v>17.290000000048085</v>
       </c>
       <c r="T7">
         <v>14.322</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>19.350000000000016</v>
+        <v>17.290000000048085</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2388,7 +2388,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>14.322</v>
+        <v>14.322000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2419,10 +2419,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>21580.81982500001</v>
+        <v>21688.96765000001</v>
       </c>
       <c r="B2">
-        <v>9037.871999998943</v>
+        <v>7084.05850005899</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step_2_4.xlsx
+++ b/A2_results_step_2_4.xlsx
@@ -1,37 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d63f66d86bcfcc9a/Master Sustainable Energy/3rd Semester/Renewables in electricity markets/Assignment 1/RenewablesInElectricityMarkets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="115_{ADE3920F-8A80-4049-8C8F-8924D2C5A303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6197574-5323-49FB-8BB3-444632ACEACC}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="5400" yWindow="0" windowWidth="16200" windowHeight="9970" firstSheet="1" activeTab="1" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="DC_flow_df" sheetId="1" r:id="rId1"/>
-    <sheet name="Ps_nodal_df" r:id="rId5" sheetId="2"/>
-    <sheet name="Po_nodal_df" r:id="rId6" sheetId="3"/>
-    <sheet name="Dk_nodal_df" r:id="rId7" sheetId="4"/>
-    <sheet name="Clearing_df" r:id="rId8" sheetId="5"/>
-    <sheet name="Price_s_df" r:id="rId9" sheetId="6"/>
-    <sheet name="SW_vs_Prof_df" r:id="rId10" sheetId="7"/>
+    <sheet name="Ps_nodal_df" sheetId="2" r:id="rId2"/>
+    <sheet name="Po_nodal_df" sheetId="3" r:id="rId3"/>
+    <sheet name="Dk_nodal_df" sheetId="4" r:id="rId4"/>
+    <sheet name="Clearing_df" sheetId="5" r:id="rId5"/>
+    <sheet name="Price_s_df" sheetId="6" r:id="rId6"/>
+    <sheet name="SW_vs_Prof_df" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>N1</t>
   </si>
@@ -115,13 +126,35 @@
   </si>
   <si>
     <t>Profit_max</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,12 +163,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,13 +192,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,14 +515,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB38731-398F-4D43-91FF-98CD8650DD53}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,9 +542,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>119.89416666666669</v>
@@ -503,67 +553,67 @@
         <v>188.88083333333336</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-119.89416666666669</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>68.98666666666666</v>
+        <v>68.986666666666665</v>
       </c>
       <c r="D3">
         <v>400.90749999999997</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-188.88083333333336</v>
       </c>
       <c r="B4">
-        <v>-68.98666666666666</v>
+        <v>-68.986666666666665</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>313.4675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>313.46749999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>-400.90749999999997</v>
       </c>
       <c r="C5">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>102.16083333333336</v>
@@ -572,35 +622,35 @@
         <v>-18.453333333333344</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>-102.16083333333336</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>-120.61416666666672</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>-313.4675</v>
+        <v>-313.46749999999997</v>
       </c>
       <c r="D7">
         <v>18.453333333333344</v>
@@ -609,7 +659,7 @@
         <v>120.61416666666672</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -618,14 +668,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E7DA7C-D5C3-44B2-81E8-EB22D81DA9D0}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,404 +697,422 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>154.9999999999999</v>
+        <v>154.99999999999989</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>119.49999999999991</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.842170943040401e-14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>2.8421709430404007E-14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>93.5</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>139.50000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5.684341886080802e-14</v>
+        <v>5.6843418860808015E-14</v>
       </c>
       <c r="B6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>88.99999999999983</v>
+        <v>88.999999999999829</v>
       </c>
       <c r="D6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>8.5</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.4210854715202004e-14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1.4210854715202004E-14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>143.99999999999986</v>
       </c>
       <c r="B10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>155.00000000000006</v>
       </c>
       <c r="D10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>66.49999999999994</v>
+        <v>66.499999999999943</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>155.00000000000003</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>82.5</v>
       </c>
       <c r="D15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="D16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>115.99999999999994</v>
       </c>
       <c r="D18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>4559.4218206407404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>154.99999999999983</v>
       </c>
       <c r="D19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>153.46462424849699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>133.00000000000009</v>
       </c>
       <c r="B20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="D20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>9908.9922525060792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>113.99999999999989</v>
       </c>
       <c r="D21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>163.315430861724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I22" s="3">
+        <f>SUM(I18:I21)</f>
+        <v>14785.194128257041</v>
       </c>
     </row>
   </sheetData>
@@ -1051,14 +1121,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE209D1-7490-4C2B-B1B0-01FD7C967100}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1078,404 +1148,404 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>427.5</v>
       </c>
       <c r="B2">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>247.50000000000003</v>
       </c>
       <c r="B3">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C3">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.1368683772161603e-13</v>
+        <v>1.1368683772161603E-13</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="B4">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B5">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>432.0</v>
+        <v>432</v>
       </c>
       <c r="B6">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>121.50000000000001</v>
       </c>
       <c r="B7">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C7">
         <v>157.99999999999994</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="B8">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C8">
-        <v>164.9999999999999</v>
+        <v>164.99999999999989</v>
       </c>
       <c r="D8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>121.50000000000001</v>
       </c>
       <c r="B9">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C9">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>247.50000000000003</v>
       </c>
       <c r="B10">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>432.0</v>
+        <v>432</v>
       </c>
       <c r="B11">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C11">
-        <v>187.5000000000001</v>
+        <v>187.50000000000011</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B12">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C12">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="B13">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>238.5</v>
       </c>
       <c r="B14">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>373.5</v>
       </c>
       <c r="B15">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1.1368683772161603e-13</v>
+        <v>1.1368683772161603E-13</v>
       </c>
       <c r="F15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>247.50000000000003</v>
       </c>
       <c r="B16">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>409.5</v>
       </c>
       <c r="B17">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>121.50000000000001</v>
       </c>
       <c r="B18">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C18">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="D18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>432.0</v>
+        <v>432</v>
       </c>
       <c r="B19">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>32.500000000000114</v>
       </c>
       <c r="F19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>121.50000000000001</v>
       </c>
       <c r="B20">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C20">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="D20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="B21">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="C21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1.1368683772161603e-13</v>
+        <v>1.1368683772161603E-13</v>
       </c>
       <c r="F21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1484,14 +1554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE6C394-3781-46F8-9F25-ED959F036C99}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1511,18 +1581,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <v>428.0</v>
+        <v>428</v>
       </c>
       <c r="E2">
         <v>163.00000000000045</v>
@@ -1531,384 +1601,384 @@
         <v>227.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="D3">
-        <v>428.0</v>
+        <v>428</v>
       </c>
       <c r="E3">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="F3">
-        <v>195.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="D4">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="E4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="F4">
         <v>172.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="D5">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="E5">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="F5">
         <v>152.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="D6">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="E6">
-        <v>282.0</v>
+        <v>282</v>
       </c>
       <c r="F6">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="E7">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="F7">
         <v>137.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>428.0</v>
+        <v>428</v>
       </c>
       <c r="E8">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="F8">
-        <v>195.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="E9">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="F9">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="D10">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="E10">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="F10">
         <v>272.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="D11">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="E11">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="F11">
         <v>152.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="D12">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="E12">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="F12">
         <v>137.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>372.0</v>
+        <v>372</v>
       </c>
       <c r="E13">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="F13">
-        <v>220.0000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>220.00000000000011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>48.5000000000002</v>
+        <v>48.500000000000199</v>
       </c>
       <c r="D14">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="E14">
-        <v>282.0</v>
+        <v>282</v>
       </c>
       <c r="F14">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="D15">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="E15">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="F15">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>62.5</v>
       </c>
       <c r="D16">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="E16">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="F16">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="D17">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="E17">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="F17">
         <v>272.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="D18">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="E18">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="F18">
         <v>137.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="D19">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="E19">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="F19">
         <v>152.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>218.00000000000003</v>
       </c>
       <c r="D20">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="E20">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="F20">
         <v>152.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="D21">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="E21">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="F21">
-        <v>200.0</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1917,14 +1987,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:T7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F2BA6E-1556-40F9-9725-92FAD8F75973}">
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1986,207 +2058,207 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>16.632000000000012</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>19.350000000000016</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>19.349999999995667</v>
       </c>
-      <c r="D2">
-        <v>24.94800000000003</v>
-      </c>
-      <c r="E2">
-        <v>14.322</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="2">
+        <v>24.948000000000029</v>
+      </c>
+      <c r="E2" s="2">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="F2" s="1">
         <v>13.667999999874153</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>13.668000000000058</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>14.322000000000001</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>19.350000000000016</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>13.668000000000006</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>14.069999999999999</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>16.875</v>
       </c>
-      <c r="M2">
-        <v>16.165</v>
-      </c>
-      <c r="N2">
+      <c r="M2" s="1">
+        <v>16.164999999999999</v>
+      </c>
+      <c r="N2" s="2">
         <v>14.321999999999997</v>
       </c>
-      <c r="O2">
-        <v>16.165</v>
-      </c>
-      <c r="P2">
-        <v>14.322</v>
-      </c>
-      <c r="Q2">
-        <v>13.668</v>
-      </c>
-      <c r="R2">
-        <v>17.28999999999999</v>
-      </c>
-      <c r="S2">
+      <c r="O2" s="1">
+        <v>16.164999999999999</v>
+      </c>
+      <c r="P2" s="2">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>13.667999999999999</v>
+      </c>
+      <c r="R2" s="1">
+        <v>17.289999999999988</v>
+      </c>
+      <c r="S2" s="2">
         <v>19.350000000000016</v>
       </c>
-      <c r="T2">
-        <v>14.322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3">
+      <c r="T2" s="2">
+        <v>14.321999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>16.632000000000005</v>
       </c>
-      <c r="B3">
-        <v>19.35000000000002</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2">
+        <v>19.350000000000019</v>
+      </c>
+      <c r="C3" s="2">
         <v>19.349999999995664</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>24.948000000000008</v>
       </c>
-      <c r="E3">
-        <v>14.322</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="2">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="F3" s="1">
         <v>13.667999999874151</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>13.668000000000056</v>
       </c>
-      <c r="H3">
-        <v>14.322</v>
-      </c>
-      <c r="I3">
-        <v>19.35000000000002</v>
-      </c>
-      <c r="J3">
+      <c r="H3" s="2">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>19.350000000000019</v>
+      </c>
+      <c r="J3" s="1">
         <v>13.668000000000006</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>14.069999999999997</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>16.875</v>
       </c>
-      <c r="M3">
-        <v>16.165</v>
-      </c>
-      <c r="N3">
+      <c r="M3" s="1">
+        <v>16.164999999999999</v>
+      </c>
+      <c r="N3" s="2">
         <v>14.321999999999996</v>
       </c>
-      <c r="O3">
-        <v>16.165</v>
-      </c>
-      <c r="P3">
-        <v>14.322</v>
-      </c>
-      <c r="Q3">
+      <c r="O3" s="1">
+        <v>16.164999999999999</v>
+      </c>
+      <c r="P3" s="2">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="Q3" s="1">
         <v>13.668000000000003</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>17.289999999999996</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="2">
         <v>19.350000000000005</v>
       </c>
-      <c r="T3">
-        <v>14.322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4">
+      <c r="T3" s="2">
+        <v>14.321999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>16.631999999999998</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>19.350000000000023</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>19.349999999995667</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>24.948</v>
       </c>
-      <c r="E4">
-        <v>14.322</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="2">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="F4" s="1">
         <v>13.667999999874155</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>13.66800000000006</v>
       </c>
-      <c r="H4">
-        <v>14.322</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="2">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="I4" s="2">
         <v>19.350000000000023</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>13.66800000000001</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>14.07</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>16.875</v>
       </c>
-      <c r="M4">
-        <v>16.165</v>
-      </c>
-      <c r="N4">
-        <v>14.322</v>
-      </c>
-      <c r="O4">
-        <v>16.165</v>
-      </c>
-      <c r="P4">
-        <v>14.322</v>
-      </c>
-      <c r="Q4">
+      <c r="M4" s="1">
+        <v>16.164999999999999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="O4" s="1">
+        <v>16.164999999999999</v>
+      </c>
+      <c r="P4" s="2">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="Q4" s="1">
         <v>13.668000000000003</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>17.289999999999996</v>
       </c>
-      <c r="S4">
-        <v>19.35000000000001</v>
-      </c>
-      <c r="T4">
-        <v>14.322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="S4" s="2">
+        <v>19.350000000000009</v>
+      </c>
+      <c r="T4" s="2">
+        <v>14.321999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>16.632</v>
-      </c>
-      <c r="B5">
+        <v>16.632000000000001</v>
+      </c>
+      <c r="B5" s="2">
         <v>19.350000000000023</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>19.349999999995664</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>24.948000000000004</v>
       </c>
-      <c r="E5">
-        <v>14.322</v>
+      <c r="E5" s="2">
+        <v>14.321999999999999</v>
       </c>
       <c r="F5">
         <v>13.667999999874151</v>
@@ -2194,10 +2266,10 @@
       <c r="G5">
         <v>13.668000000000058</v>
       </c>
-      <c r="H5">
-        <v>14.322</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="2">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="I5" s="2">
         <v>19.350000000000023</v>
       </c>
       <c r="J5">
@@ -2210,15 +2282,15 @@
         <v>16.875</v>
       </c>
       <c r="M5">
-        <v>16.165</v>
-      </c>
-      <c r="N5">
-        <v>14.322</v>
+        <v>16.164999999999999</v>
+      </c>
+      <c r="N5" s="2">
+        <v>14.321999999999999</v>
       </c>
       <c r="O5">
-        <v>16.165</v>
-      </c>
-      <c r="P5">
+        <v>16.164999999999999</v>
+      </c>
+      <c r="P5" s="2">
         <v>14.322000000000001</v>
       </c>
       <c r="Q5">
@@ -2227,27 +2299,27 @@
       <c r="R5">
         <v>17.29</v>
       </c>
-      <c r="S5">
-        <v>19.35</v>
-      </c>
-      <c r="T5">
-        <v>14.322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="S5" s="2">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="T5" s="2">
+        <v>14.321999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>16.632</v>
-      </c>
-      <c r="B6">
+        <v>16.632000000000001</v>
+      </c>
+      <c r="B6" s="2">
         <v>19.350000000000023</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>19.34999999999566</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>24.948000000000004</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>14.321999999999997</v>
       </c>
       <c r="F6">
@@ -2256,10 +2328,10 @@
       <c r="G6">
         <v>13.66800000000006</v>
       </c>
-      <c r="H6">
-        <v>14.322</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="2">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="I6" s="2">
         <v>19.350000000000023</v>
       </c>
       <c r="J6">
@@ -2272,15 +2344,15 @@
         <v>16.875</v>
       </c>
       <c r="M6">
-        <v>16.165</v>
-      </c>
-      <c r="N6">
+        <v>16.164999999999999</v>
+      </c>
+      <c r="N6" s="2">
         <v>14.321999999999997</v>
       </c>
       <c r="O6">
-        <v>16.165</v>
-      </c>
-      <c r="P6">
+        <v>16.164999999999999</v>
+      </c>
+      <c r="P6" s="2">
         <v>14.322000000000001</v>
       </c>
       <c r="Q6">
@@ -2289,73 +2361,117 @@
       <c r="R6">
         <v>17.29</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="2">
         <v>19.349999999999998</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="2">
         <v>14.322000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7">
-        <v>16.632</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>16.632000000000001</v>
+      </c>
+      <c r="B7" s="2">
         <v>19.350000000000023</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>19.349999999995664</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>24.948000000000004</v>
       </c>
-      <c r="E7">
-        <v>14.322</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="2">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="F7" s="1">
         <v>13.667999999874153</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>13.66800000000006</v>
       </c>
-      <c r="H7">
-        <v>14.322</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="2">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="I7" s="2">
         <v>19.350000000000023</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>13.668000000000008</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>14.069999999999999</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>16.875</v>
       </c>
-      <c r="M7">
-        <v>16.165</v>
-      </c>
-      <c r="N7">
-        <v>14.322</v>
-      </c>
-      <c r="O7">
-        <v>16.165</v>
-      </c>
-      <c r="P7">
+      <c r="M7" s="1">
+        <v>16.164999999999999</v>
+      </c>
+      <c r="N7" s="2">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="O7" s="1">
+        <v>16.164999999999999</v>
+      </c>
+      <c r="P7" s="2">
         <v>14.322000000000001</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>13.668000000000003</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>17.29</v>
       </c>
-      <c r="S7">
-        <v>19.35</v>
-      </c>
-      <c r="T7">
-        <v>14.322</v>
+      <c r="S7" s="2">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="T7" s="2">
+        <v>14.321999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>19.350000000000016</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>24.948000000000008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>14.321999999999999</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>24.948000000000004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2364,34 +2480,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899DFBC9-0C3A-4982-B646-C049CA12AEDF}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>19.350000000000016</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>24.948000000000008</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>14.322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>14.321999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>24.948000000000004</v>
       </c>
@@ -2402,14 +2520,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913A1B0C-EA85-402D-9321-49F846542326}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2417,12 +2537,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>21580.81982500001</v>
       </c>
       <c r="B2">
-        <v>9037.871999998943</v>
+        <v>9037.8719999989426</v>
       </c>
     </row>
   </sheetData>
